--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/wrlc_st-andrews_ac_uk/Documents/Biodiversity at St Andrews/Biodiversity Action Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/wrlc_st-andrews_ac_uk/Documents/Biodiversity at St Andrews/Biodiversity Action Plan/Biodiversity Action Plan Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E0462596-C42A-4E25-8CC3-6C893004039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="14_{E0462596-C42A-4E25-8CC3-6C893004039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1962A733-4D6C-4D60-9F1A-A96926268758}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="469">
   <si>
     <t>Status</t>
   </si>
@@ -1773,12 +1773,136 @@
   <si>
     <t>Timescale</t>
   </si>
+  <si>
+    <t>Remove invasive animals throughout the Estates</t>
+  </si>
+  <si>
+    <t>M = Repeated surveys and adhoc sightings
+NOTE. No University action planned for grey squirrels at this time because of reputational, ethical and practical considerations</t>
+  </si>
+  <si>
+    <t>M = Habitat area monitoring 
+NOTE Progressing at the individual site level through habitat area plans</t>
+  </si>
+  <si>
+    <t>M = Creation of repository
+NOTE: In planning stage with partnership of Botanic Garden</t>
+  </si>
+  <si>
+    <t>Harry Watkins, John Reid</t>
+  </si>
+  <si>
+    <t>S = Manage waterway vegetation by leaving a min. 2m of bankside vegetation, cut alternative banks each year, and trim vegetation late in summer to reduce disturbance during breeding season (late September/October)
+M =Habitat area and biodiversity monitoring
+A = inexpensive; change in management recommendations
+R = many species require bankside cover
+T = Not currently manage any waterways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S = Plant mixed species stands of woodland (coniferous and deciduous)
+M = No. trees planted and established; habitat area monitoring
+</t>
+  </si>
+  <si>
+    <t>Retain and encourage ivy on trees  and raise awareness about value and myths through toolbox talk</t>
+  </si>
+  <si>
+    <t>M = Habitat area and biodiversity monitoring</t>
+  </si>
+  <si>
+    <t>M = Biodiversity monitoring</t>
+  </si>
+  <si>
+    <t>M = Habitat infrastructure and biodiversity monitoring</t>
+  </si>
+  <si>
+    <t>M = Biodiversity monitoring and dashboard</t>
+  </si>
+  <si>
+    <t>M = Habitat area monitoring</t>
+  </si>
+  <si>
+    <t>Development planning project teams and Biodiversity Working Group</t>
+  </si>
+  <si>
+    <t>Keith Thomason and Will Cresswell</t>
+  </si>
+  <si>
+    <t>Harry Watkins, John Reid, Will Cresswell</t>
+  </si>
+  <si>
+    <t>Botanic Gardens and Estates</t>
+  </si>
+  <si>
+    <t>M = Biodiversity Working Group logs involvement in development projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M = Measured by number of people visiting museum and feedback forms at the museum
+</t>
+  </si>
+  <si>
+    <t>M = no. of meetings, no. of collaborative projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M = Volume of research conducted at undergraduate and postgraduate level
+</t>
+  </si>
+  <si>
+    <t>University Sustainability in the Curriculum person when this appears</t>
+  </si>
+  <si>
+    <t>M = Garden created, research underway
+NOTE: Garden adjacent to St Mary's Quad/Bute Building is being developed as a wild garden with some sensory features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M = Before and after questionnaires; number of students involved in biodiversity projects
+</t>
+  </si>
+  <si>
+    <t>Biodiversity Literacy Module</t>
+  </si>
+  <si>
+    <t>Amanda Skinner</t>
+  </si>
+  <si>
+    <t>Sustainability Comms lead</t>
+  </si>
+  <si>
+    <t>Role created to create a pathway for students to get accreditation for sustainable modules and activities</t>
+  </si>
+  <si>
+    <t>University governance; Principal's Office</t>
+  </si>
+  <si>
+    <t>M = Occurrence of Sustainability Summit annually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embracing the sustainability summit </t>
+  </si>
+  <si>
+    <t>More formal and frequent communications from senior leadership</t>
+  </si>
+  <si>
+    <t>Official role responsible for biodiversity positive in development  projects</t>
+  </si>
+  <si>
+    <t>Biodiversity expertise a priority in staff hires in grounds</t>
+  </si>
+  <si>
+    <t>Karen Laing</t>
+  </si>
+  <si>
+    <t>Ecological Projects Officer; University governance; Principal's Office</t>
+  </si>
+  <si>
+    <t>Senior leadership group has a biodiversity champion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1939,6 +2063,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2280,7 +2412,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2818,7 +2950,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2827,7 +2962,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3201,13 +3357,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F2F7B6-167F-48F0-8E37-93061261A30C}">
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A66"/>
+      <selection pane="bottomRight" activeCell="F60" sqref="F60:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3817,18 +3973,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="255">
+    <row r="15" spans="1:22" ht="76.5">
       <c r="A15" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B15" s="126" t="s">
-        <v>125</v>
+        <v>432</v>
       </c>
       <c r="C15" s="117" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="169" t="s">
-        <v>127</v>
+        <v>433</v>
       </c>
       <c r="E15" s="170" t="s">
         <v>128</v>
@@ -3889,9 +4045,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="127.5">
+    <row r="17" spans="1:23" ht="45">
       <c r="A17" s="10" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B17" s="117" t="s">
         <v>145</v>
@@ -3900,7 +4056,7 @@
         <v>126</v>
       </c>
       <c r="D17" s="169" t="s">
-        <v>146</v>
+        <v>434</v>
       </c>
       <c r="E17" s="170"/>
       <c r="F17" s="117" t="s">
@@ -3925,9 +4081,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="89.25">
+    <row r="18" spans="1:23" ht="38.25">
       <c r="A18" s="10" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B18" s="117" t="s">
         <v>150</v>
@@ -3936,10 +4092,10 @@
         <v>151</v>
       </c>
       <c r="D18" s="169" t="s">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="E18" s="170" t="s">
-        <v>19</v>
+        <v>436</v>
       </c>
       <c r="F18" s="117" t="s">
         <v>50</v>
@@ -3965,7 +4121,7 @@
     </row>
     <row r="19" spans="1:23" ht="153">
       <c r="A19" s="10" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B19" s="117" t="s">
         <v>156</v>
@@ -3974,10 +4130,10 @@
         <v>157</v>
       </c>
       <c r="D19" s="169" t="s">
-        <v>158</v>
+        <v>437</v>
       </c>
       <c r="E19" s="170" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="F19" s="117" t="s">
         <v>159</v>
@@ -4046,9 +4202,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="191.25">
+    <row r="21" spans="1:23" ht="75">
       <c r="A21" s="10" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B21" s="117" t="s">
         <v>171</v>
@@ -4057,7 +4213,7 @@
         <v>172</v>
       </c>
       <c r="D21" s="169" t="s">
-        <v>173</v>
+        <v>438</v>
       </c>
       <c r="E21" s="170" t="s">
         <v>16</v>
@@ -4102,18 +4258,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="114.75">
+    <row r="22" spans="1:23" ht="75">
       <c r="A22" s="76" t="s">
         <v>124</v>
       </c>
       <c r="B22" s="126" t="s">
-        <v>176</v>
+        <v>439</v>
       </c>
       <c r="C22" s="117" t="s">
         <v>177</v>
       </c>
       <c r="D22" s="169" t="s">
-        <v>178</v>
+        <v>440</v>
       </c>
       <c r="E22" s="170" t="s">
         <v>19</v>
@@ -4146,9 +4302,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="140.25">
+    <row r="23" spans="1:23" ht="75">
       <c r="A23" s="173" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B23" s="117" t="s">
         <v>182</v>
@@ -4157,13 +4313,13 @@
         <v>126</v>
       </c>
       <c r="D23" s="169" t="s">
-        <v>183</v>
+        <v>441</v>
       </c>
       <c r="E23" s="170" t="s">
         <v>119</v>
       </c>
       <c r="F23" s="117" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="G23" s="117" t="s">
         <v>27</v>
@@ -4546,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="318.75">
+    <row r="33" spans="1:22" ht="120">
       <c r="A33" s="10" t="s">
         <v>135</v>
       </c>
@@ -4557,7 +4713,7 @@
         <v>126</v>
       </c>
       <c r="D33" s="169" t="s">
-        <v>249</v>
+        <v>442</v>
       </c>
       <c r="E33" s="170" t="s">
         <v>250</v>
@@ -4584,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="140.25">
+    <row r="34" spans="1:22" ht="75">
       <c r="A34" s="10" t="s">
         <v>21</v>
       </c>
@@ -4595,7 +4751,7 @@
         <v>257</v>
       </c>
       <c r="D34" s="169" t="s">
-        <v>258</v>
+        <v>443</v>
       </c>
       <c r="E34" s="170" t="s">
         <v>119</v>
@@ -4624,15 +4780,23 @@
     </row>
     <row r="35" spans="1:22" ht="75">
       <c r="A35" s="10" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B35" s="126" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
+      <c r="C35" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="E35" s="199" t="s">
+        <v>446</v>
+      </c>
+      <c r="F35" s="126" t="s">
+        <v>445</v>
+      </c>
       <c r="G35" s="126" t="s">
         <v>27</v>
       </c>
@@ -4659,10 +4823,18 @@
       <c r="B36" s="126" t="s">
         <v>429</v>
       </c>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
+      <c r="C36" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="126" t="s">
+        <v>441</v>
+      </c>
+      <c r="E36" s="199" t="s">
+        <v>447</v>
+      </c>
+      <c r="F36" s="126" t="s">
+        <v>448</v>
+      </c>
       <c r="G36" s="126" t="s">
         <v>27</v>
       </c>
@@ -4680,15 +4852,23 @@
     </row>
     <row r="37" spans="1:22" ht="75">
       <c r="A37" s="10" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B37" s="126" t="s">
         <v>270</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
+      <c r="C37" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="126" t="s">
+        <v>434</v>
+      </c>
+      <c r="E37" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="117" t="s">
+        <v>246</v>
+      </c>
       <c r="G37" s="126" t="s">
         <v>27</v>
       </c>
@@ -4704,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="180">
+    <row r="38" spans="1:22" ht="60">
       <c r="A38" s="18" t="s">
         <v>124</v>
       </c>
@@ -4715,10 +4895,10 @@
         <v>244</v>
       </c>
       <c r="D38" s="126" t="s">
-        <v>264</v>
-      </c>
-      <c r="E38" s="126" t="s">
-        <v>265</v>
+        <v>449</v>
+      </c>
+      <c r="E38" s="199" t="s">
+        <v>446</v>
       </c>
       <c r="F38" s="126" t="s">
         <v>266</v>
@@ -4738,9 +4918,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="60">
+    <row r="39" spans="1:22" ht="75">
       <c r="A39" s="174" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B39" s="175" t="s">
         <v>272</v>
@@ -4748,9 +4928,15 @@
       <c r="C39" s="175" t="s">
         <v>244</v>
       </c>
-      <c r="D39" s="175"/>
-      <c r="E39" s="175"/>
-      <c r="F39" s="175"/>
+      <c r="D39" s="175" t="s">
+        <v>444</v>
+      </c>
+      <c r="E39" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="117" t="s">
+        <v>246</v>
+      </c>
       <c r="G39" s="175" t="s">
         <v>27</v>
       </c>
@@ -4922,9 +5108,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="153">
+    <row r="44" spans="1:22" ht="105">
       <c r="A44" s="89" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B44" s="89" t="s">
         <v>307</v>
@@ -4933,7 +5119,7 @@
         <v>308</v>
       </c>
       <c r="D44" s="182" t="s">
-        <v>309</v>
+        <v>450</v>
       </c>
       <c r="E44" s="183" t="s">
         <v>310</v>
@@ -4960,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="153">
+    <row r="45" spans="1:22" ht="60">
       <c r="A45" s="89" t="s">
         <v>21</v>
       </c>
@@ -4971,7 +5157,7 @@
         <v>315</v>
       </c>
       <c r="D45" s="182" t="s">
-        <v>316</v>
+        <v>451</v>
       </c>
       <c r="E45" s="183" t="s">
         <v>139</v>
@@ -4998,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="229.5">
+    <row r="46" spans="1:22" ht="60">
       <c r="A46" s="89" t="s">
         <v>124</v>
       </c>
@@ -5009,10 +5195,10 @@
         <v>321</v>
       </c>
       <c r="D46" s="182" t="s">
-        <v>322</v>
+        <v>452</v>
       </c>
       <c r="E46" s="183" t="s">
-        <v>139</v>
+        <v>453</v>
       </c>
       <c r="F46" s="89" t="s">
         <v>323</v>
@@ -5034,9 +5220,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="191.25">
+    <row r="47" spans="1:22" ht="75">
       <c r="A47" s="89" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B47" s="88" t="s">
         <v>326</v>
@@ -5045,10 +5231,10 @@
         <v>327</v>
       </c>
       <c r="D47" s="182" t="s">
-        <v>328</v>
+        <v>454</v>
       </c>
       <c r="E47" s="183" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="F47" s="89" t="s">
         <v>329</v>
@@ -5162,10 +5348,10 @@
         <v>346</v>
       </c>
       <c r="E50" s="183" t="s">
-        <v>347</v>
+        <v>119</v>
       </c>
       <c r="F50" s="89" t="s">
-        <v>348</v>
+        <v>119</v>
       </c>
       <c r="G50" s="89" t="s">
         <v>282</v>
@@ -5186,9 +5372,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="114.75">
+    <row r="51" spans="1:12" ht="51">
       <c r="A51" s="89" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B51" s="103" t="s">
         <v>353</v>
@@ -5197,11 +5383,13 @@
         <v>354</v>
       </c>
       <c r="D51" s="182" t="s">
-        <v>355</v>
-      </c>
-      <c r="E51" s="183"/>
+        <v>455</v>
+      </c>
+      <c r="E51" s="183" t="s">
+        <v>119</v>
+      </c>
       <c r="F51" s="89" t="s">
-        <v>356</v>
+        <v>456</v>
       </c>
       <c r="G51" s="89" t="s">
         <v>282</v>
@@ -5222,24 +5410,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="127.5">
+    <row r="52" spans="1:12" ht="153">
       <c r="A52" s="89" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B52" s="89" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D52" s="182" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E52" s="183" t="s">
         <v>119</v>
       </c>
       <c r="F52" s="89" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="G52" s="89" t="s">
         <v>282</v>
@@ -5248,7 +5436,7 @@
         <v>43</v>
       </c>
       <c r="I52" s="180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J52" s="180" t="s">
         <v>46</v>
@@ -5260,105 +5448,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="153">
+    <row r="53" spans="1:12" ht="280.5">
       <c r="A53" s="89" t="s">
         <v>135</v>
       </c>
       <c r="B53" s="89" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C53" s="89" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D53" s="182" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E53" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="89" t="s">
-        <v>246</v>
+      <c r="F53" s="182" t="s">
+        <v>453</v>
       </c>
       <c r="G53" s="89" t="s">
         <v>282</v>
       </c>
       <c r="H53" s="180" t="s">
-        <v>43</v>
-      </c>
-      <c r="I53" s="180" t="s">
-        <v>33</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="I53" s="180"/>
       <c r="J53" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="184">
-        <v>3</v>
-      </c>
+      <c r="K53" s="184"/>
       <c r="L53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="280.5">
+    <row r="54" spans="1:12" ht="114.75">
       <c r="A54" s="89" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B54" s="89" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C54" s="89" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D54" s="182" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E54" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="F54" s="89" t="s">
-        <v>236</v>
+      <c r="F54" s="182" t="s">
+        <v>453</v>
       </c>
       <c r="G54" s="89" t="s">
         <v>282</v>
       </c>
       <c r="H54" s="180" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" s="180" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="180" t="s">
+        <v>70</v>
+      </c>
+      <c r="K54" s="184">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="222" customHeight="1">
+      <c r="A55" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="D55" s="108" t="s">
+        <v>382</v>
+      </c>
+      <c r="E55" s="200" t="s">
+        <v>457</v>
+      </c>
+      <c r="F55" s="108" t="s">
+        <v>458</v>
+      </c>
+      <c r="G55" s="108" t="s">
+        <v>282</v>
+      </c>
+      <c r="H55" s="180" t="s">
         <v>162</v>
       </c>
-      <c r="I54" s="180"/>
-      <c r="J54" s="180" t="s">
-        <v>46</v>
-      </c>
-      <c r="K54" s="184"/>
-      <c r="L54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="114.75">
-      <c r="A55" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="B55" s="89" t="s">
-        <v>376</v>
-      </c>
-      <c r="C55" s="89" t="s">
-        <v>377</v>
-      </c>
-      <c r="D55" s="182" t="s">
-        <v>378</v>
-      </c>
-      <c r="E55" s="183" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="G55" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="H55" s="180" t="s">
-        <v>43</v>
-      </c>
       <c r="I55" s="180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J55" s="180" t="s">
         <v>70</v>
@@ -5370,21 +5558,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="162" customHeight="1">
-      <c r="A56" s="108" t="s">
-        <v>135</v>
+    <row r="56" spans="1:12" ht="51">
+      <c r="A56" s="89" t="s">
+        <v>124</v>
       </c>
       <c r="B56" s="108" t="s">
-        <v>380</v>
-      </c>
-      <c r="C56" s="108" t="s">
-        <v>381</v>
-      </c>
-      <c r="D56" s="108" t="s">
-        <v>382</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C56" s="187" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" s="108"/>
       <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
+      <c r="F56" s="182" t="s">
+        <v>453</v>
+      </c>
       <c r="G56" s="108" t="s">
         <v>282</v>
       </c>
@@ -5395,7 +5583,7 @@
         <v>33</v>
       </c>
       <c r="J56" s="180" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="K56" s="184">
         <v>3</v>
@@ -5404,18 +5592,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="45">
-      <c r="A57" s="89" t="s">
+    <row r="57" spans="1:12" ht="90">
+      <c r="A57" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="108" t="s">
-        <v>387</v>
-      </c>
-      <c r="C57" s="108"/>
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="108"/>
-      <c r="G57" s="108" t="s">
+      <c r="B57" s="89" t="s">
+        <v>459</v>
+      </c>
+      <c r="C57" s="108" t="s">
+        <v>341</v>
+      </c>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="182" t="s">
+        <v>460</v>
+      </c>
+      <c r="G57" s="89" t="s">
         <v>282</v>
       </c>
       <c r="H57" s="180" t="s">
@@ -5427,34 +5619,38 @@
       <c r="J57" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="K57" s="184">
-        <v>3</v>
-      </c>
+      <c r="K57" s="184"/>
       <c r="L57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="90">
-      <c r="A58" s="185" t="s">
-        <v>124</v>
+    <row r="58" spans="1:12" ht="45">
+      <c r="A58" s="89" t="s">
+        <v>276</v>
       </c>
       <c r="B58" s="89" t="s">
-        <v>390</v>
+        <v>462</v>
       </c>
       <c r="C58" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
+      <c r="D58" s="89" t="s">
+        <v>461</v>
+      </c>
+      <c r="E58" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="182" t="s">
+        <v>460</v>
+      </c>
       <c r="G58" s="89" t="s">
         <v>282</v>
       </c>
       <c r="H58" s="180" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="I58" s="180" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J58" s="180" t="s">
         <v>46</v>
@@ -5464,79 +5660,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30">
-      <c r="A59" s="185" t="s">
+    <row r="59" spans="1:12" ht="60">
+      <c r="A59" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="C59" s="108" t="s">
+      <c r="B59" s="186" t="s">
+        <v>463</v>
+      </c>
+      <c r="C59" s="187" t="s">
         <v>244</v>
       </c>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89" t="s">
+      <c r="D59" s="186"/>
+      <c r="E59" s="186"/>
+      <c r="F59" s="182" t="s">
+        <v>460</v>
+      </c>
+      <c r="G59" s="186" t="s">
         <v>282</v>
       </c>
-      <c r="H59" s="180" t="s">
+      <c r="H59" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="I59" s="180" t="s">
+      <c r="I59" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="J59" s="180" t="s">
+      <c r="J59" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="K59" s="184"/>
+      <c r="K59" s="189"/>
       <c r="L59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="60">
-      <c r="A60" s="174" t="s">
+    <row r="60" spans="1:12" ht="75">
+      <c r="A60" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="186" t="s">
-        <v>392</v>
-      </c>
-      <c r="C60" s="187" t="s">
+      <c r="B60" s="191" t="s">
+        <v>464</v>
+      </c>
+      <c r="C60" s="192" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="186"/>
-      <c r="E60" s="186"/>
-      <c r="F60" s="186"/>
-      <c r="G60" s="186" t="s">
-        <v>282</v>
-      </c>
-      <c r="H60" s="188" t="s">
-        <v>43</v>
-      </c>
-      <c r="I60" s="188" t="s">
-        <v>45</v>
-      </c>
-      <c r="J60" s="188" t="s">
-        <v>46</v>
-      </c>
-      <c r="K60" s="189"/>
+      <c r="D60" s="191"/>
+      <c r="E60" s="191"/>
+      <c r="F60" s="198" t="s">
+        <v>460</v>
+      </c>
+      <c r="G60" s="191" t="s">
+        <v>430</v>
+      </c>
+      <c r="H60" s="193" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="193" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="193" t="s">
+        <v>70</v>
+      </c>
+      <c r="K60" s="194"/>
       <c r="L60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="30">
-      <c r="A61" s="190" t="s">
+    <row r="61" spans="1:12" ht="45">
+      <c r="A61" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="191" t="s">
-        <v>394</v>
-      </c>
-      <c r="C61" s="192" t="s">
+      <c r="B61" s="76" t="s">
+        <v>465</v>
+      </c>
+      <c r="C61" s="195" t="s">
         <v>244</v>
       </c>
-      <c r="D61" s="191"/>
-      <c r="E61" s="191"/>
-      <c r="F61" s="191"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="198" t="s">
+        <v>460</v>
+      </c>
       <c r="G61" s="191" t="s">
         <v>430</v>
       </c>
@@ -5549,32 +5751,36 @@
       <c r="J61" s="193" t="s">
         <v>70</v>
       </c>
-      <c r="K61" s="194"/>
+      <c r="K61" s="196"/>
       <c r="L61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="30">
-      <c r="A62" s="185" t="s">
-        <v>124</v>
+    <row r="62" spans="1:12" ht="45">
+      <c r="A62" s="197" t="s">
+        <v>276</v>
       </c>
       <c r="B62" s="76" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C62" s="195" t="s">
         <v>244</v>
       </c>
       <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
+      <c r="E62" s="76" t="s">
+        <v>466</v>
+      </c>
+      <c r="F62" s="198" t="s">
+        <v>460</v>
+      </c>
       <c r="G62" s="191" t="s">
         <v>430</v>
       </c>
       <c r="H62" s="193" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I62" s="193" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J62" s="193" t="s">
         <v>70</v>
@@ -5584,19 +5790,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="45">
-      <c r="A63" s="197" t="s">
-        <v>276</v>
+    <row r="63" spans="1:12" ht="65.25" customHeight="1">
+      <c r="A63" s="185" t="s">
+        <v>124</v>
       </c>
       <c r="B63" s="76" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="C63" s="195" t="s">
         <v>244</v>
       </c>
       <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
+      <c r="E63" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="198" t="s">
+        <v>467</v>
+      </c>
       <c r="G63" s="191" t="s">
         <v>430</v>
       </c>
@@ -5604,7 +5814,7 @@
         <v>162</v>
       </c>
       <c r="I63" s="193" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J63" s="193" t="s">
         <v>70</v>
@@ -5614,25 +5824,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="65.25" customHeight="1">
+    <row r="64" spans="1:12" ht="60">
       <c r="A64" s="185" t="s">
         <v>124</v>
       </c>
       <c r="B64" s="76" t="s">
-        <v>428</v>
-      </c>
-      <c r="C64" s="195"/>
+        <v>468</v>
+      </c>
+      <c r="C64" s="195" t="s">
+        <v>244</v>
+      </c>
       <c r="D64" s="76"/>
       <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
+      <c r="F64" s="198" t="s">
+        <v>460</v>
+      </c>
       <c r="G64" s="191" t="s">
         <v>430</v>
       </c>
       <c r="H64" s="193" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="I64" s="193" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J64" s="193" t="s">
         <v>70</v>
@@ -5642,78 +5856,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="30">
-      <c r="A65" s="185" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="76" t="s">
-        <v>399</v>
-      </c>
-      <c r="C65" s="195" t="s">
-        <v>244</v>
-      </c>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="191" t="s">
-        <v>430</v>
-      </c>
-      <c r="H65" s="193" t="s">
-        <v>43</v>
-      </c>
-      <c r="I65" s="193" t="s">
-        <v>45</v>
-      </c>
-      <c r="J65" s="193" t="s">
-        <v>70</v>
-      </c>
-      <c r="K65" s="196"/>
-      <c r="L65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="60">
-      <c r="A66" s="185" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="76" t="s">
-        <v>400</v>
-      </c>
-      <c r="C66" s="76" t="s">
-        <v>401</v>
-      </c>
-      <c r="D66" s="198"/>
-      <c r="E66" s="199"/>
-      <c r="F66" s="76" t="s">
-        <v>338</v>
-      </c>
-      <c r="G66" s="191" t="s">
-        <v>430</v>
-      </c>
-      <c r="H66" s="193" t="s">
-        <v>162</v>
-      </c>
-      <c r="I66" s="193" t="s">
-        <v>33</v>
-      </c>
-      <c r="J66" s="193" t="s">
-        <v>46</v>
-      </c>
-      <c r="K66" s="196"/>
-      <c r="L66">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A57">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="achieved and ongoing">
+  <conditionalFormatting sqref="A2:A56">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="achieved and ongoing">
       <formula>NOT(ISERROR(SEARCH("achieved and ongoing",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="underway">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="underway">
       <formula>NOT(ISERROR(SEARCH("underway",A2)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="not started">
+      <formula>NOT(ISERROR(SEARCH("not started",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="achieved and ongoing">
+      <formula>NOT(ISERROR(SEARCH("achieved and ongoing",A58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="underway">
+      <formula>NOT(ISERROR(SEARCH("underway",A58)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="not started">
-      <formula>NOT(ISERROR(SEARCH("not started",A2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("not started",A58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12105,6 +12268,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="12c1d019-452c-4f5f-9397-ffc6d392f7a1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="689033e7-fc09-4c40-a3c6-00594cf9aea0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085C9F2CD37B1374EBC535C74F202A173" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2790b99a3d72608f6269c6bfcacd7c1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="689033e7-fc09-4c40-a3c6-00594cf9aea0" xmlns:ns3="12c1d019-452c-4f5f-9397-ffc6d392f7a1" xmlns:ns4="ab9ea86b-b30e-4b69-aa01-b771721c3aef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3cc7b546f64d0c596c0b9fcf59ff446" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="689033e7-fc09-4c40-a3c6-00594cf9aea0"/>
@@ -12358,27 +12541,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="12c1d019-452c-4f5f-9397-ffc6d392f7a1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="689033e7-fc09-4c40-a3c6-00594cf9aea0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFA26091-165F-4BC2-8D88-D31BD362455C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CD9C593-6A79-4D85-9CD9-DE63E0BC27F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12c1d019-452c-4f5f-9397-ffc6d392f7a1"/>
+    <ds:schemaRef ds:uri="689033e7-fc09-4c40-a3c6-00594cf9aea0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC452F4-A49D-429D-AB97-7861B01AC740}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12396,23 +12578,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CD9C593-6A79-4D85-9CD9-DE63E0BC27F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12c1d019-452c-4f5f-9397-ffc6d392f7a1"/>
-    <ds:schemaRef ds:uri="689033e7-fc09-4c40-a3c6-00594cf9aea0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFA26091-165F-4BC2-8D88-D31BD362455C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/wrlc_st-andrews_ac_uk/Documents/Biodiversity at St Andrews/Biodiversity Action Plan/Biodiversity Action Plan Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907.sharepoint.com/sites/BiodiversityWorkingGroup/Shared Documents/General/Biodiversity Action Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{59D2293D-8CF0-49BF-AAC0-6E0FEBE95221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91677866-94A2-4316-B23D-F67D7F31DDD7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55D88E46-0C6F-4651-BE22-4B3562C3081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="690" windowWidth="25590" windowHeight="14115" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2630" yWindow="0" windowWidth="19200" windowHeight="11230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="531">
   <si>
     <t>Species</t>
   </si>
@@ -329,7 +329,7 @@
 </t>
   </si>
   <si>
-    <t>not started</t>
+    <t>underway</t>
   </si>
   <si>
     <t xml:space="preserve">Propagate Fife aspen and plant </t>
@@ -345,13 +345,13 @@
 T = Within 2 to 5 years</t>
   </si>
   <si>
-    <t>Johanna Willi, Clare Maynard</t>
+    <t>Ollie Chadina, Ruby Charr, Johanna Willi</t>
   </si>
   <si>
     <t>Estates Grounds Team &amp; School of Biology</t>
   </si>
   <si>
-    <t>Tree planting sites to be identified. Tree nursery No propogation; botanics - action for Harry</t>
+    <t>Tree planting sites to be identified. Tree nursery No propogation; botanics - action for Harry; Ollie and Ruby scoping collecting cuttings and pilot propogation</t>
   </si>
   <si>
     <t xml:space="preserve">Restore coastal habitats </t>
@@ -395,25 +395,6 @@
     <t>Will Cresswell School of Biology</t>
   </si>
   <si>
-    <t>Remove invasive animals throughout the Estates</t>
-  </si>
-  <si>
-    <t>University Estate</t>
-  </si>
-  <si>
-    <t>M = Repeated surveys and adhoc sightings
-NOTE. No University action planned for grey squirrels at this time because of reputational, ethical and practical considerations</t>
-  </si>
-  <si>
-    <t>Alexander Clark</t>
-  </si>
-  <si>
-    <t>Requires professional specialist</t>
-  </si>
-  <si>
-    <t>underway</t>
-  </si>
-  <si>
     <t>Erect and top-up bird feeders</t>
   </si>
   <si>
@@ -436,6 +417,9 @@
     <t>Reduce sealed surfaces at the University</t>
   </si>
   <si>
+    <t>University Estate</t>
+  </si>
+  <si>
     <t>M = Habitat area monitoring 
 NOTE Progressing at the individual site level through habitat area plans</t>
   </si>
@@ -456,7 +440,7 @@
     <t>Harry Watkins, John Reid</t>
   </si>
   <si>
-    <t>Jan26: John Reid in discussion with Harry Watkins re composting site at Botanics for use by University.</t>
+    <t xml:space="preserve">Jan26: John Reid in discussion with Harry Watkins re composting site at Botanics for use by University. </t>
   </si>
   <si>
     <t>Reduce nesting season disturbance</t>
@@ -478,7 +462,10 @@
     <t>long</t>
   </si>
   <si>
-    <t>Weed and thin pond vegetation</t>
+    <t>not started</t>
+  </si>
+  <si>
+    <t>Weed and thin SUDS pond vegetation</t>
   </si>
   <si>
     <t>DRA</t>
@@ -491,6 +478,9 @@
 T = ASAP</t>
   </si>
   <si>
+    <t>Define status of each pond (East Basin, West Basin and North) and report back on work to be carried out</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plant mixed woodland </t>
   </si>
   <si>
@@ -518,6 +508,9 @@
   </si>
   <si>
     <t>Building maintanance team &amp; Estates Grounds Team</t>
+  </si>
+  <si>
+    <t>Johanna to develop toolbox talk on pros/cons of ivy. Myth busting</t>
   </si>
   <si>
     <t xml:space="preserve">Map the fungi community </t>
@@ -755,6 +748,9 @@
     <t>Botanic Gardens and Estates</t>
   </si>
   <si>
+    <t>Start with identifying existing iconic trees; add to Biodiversity map</t>
+  </si>
+  <si>
     <t xml:space="preserve">Remove redundant fencing on University estate to improve permeability to wildlife </t>
   </si>
   <si>
@@ -846,6 +842,18 @@
   </si>
   <si>
     <t xml:space="preserve">2026: on 19 March as part of Sustainability Week; organised by Katie Monk. JW supporting the day with walk, talk and stall as well as more biodiversity events throughout the week. </t>
+  </si>
+  <si>
+    <t>Inventory biodiversity signage to determine where would benefit from signage and which signs need to be replaced, removed or updated</t>
+  </si>
+  <si>
+    <t>Targets - map of signs, inventory and status, recommendations for each</t>
+  </si>
+  <si>
+    <t>Biodiversity Literacy team</t>
+  </si>
+  <si>
+    <t>Added new BWG meeting Feb 2nd</t>
   </si>
   <si>
     <t>Create a biodiversity trail from Observatory Woodland</t>
@@ -936,6 +944,9 @@
 R = Relevant to understanding the social impacts of actions delivered as part of the biodiversity policy.
 T = First round of surveys to be distributed in 2019 and circulated annually with expectation
 of improvement after 1 year.</t>
+  </si>
+  <si>
+    <t>Alexander Clark</t>
   </si>
   <si>
     <t>Environment Team &amp; University Schools</t>
@@ -1068,7 +1079,10 @@
     <t>More formal and frequent communications from senior leadership</t>
   </si>
   <si>
-    <t>Official role responsible for biodiversity positive in development  projects</t>
+    <t xml:space="preserve">Support the development of an official Biodiversity role within the Environment Team focussing on biodiversity positive operations and strategic planning in all Estates functions and projects.  </t>
+  </si>
+  <si>
+    <t>Keith Thomason</t>
   </si>
   <si>
     <t>capacity</t>
@@ -1089,7 +1103,19 @@
     <t>Ecological Projects Officer; University governance; Principal's Office</t>
   </si>
   <si>
+    <t xml:space="preserve">Jan2026: giving first biodiversity toolbox talk to Grounds. </t>
+  </si>
+  <si>
     <t>Senior leadership group has a biodiversity champion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve estates processes of interaction and engagement with Environment/ Transition Team relating to biodiversity support. </t>
+  </si>
+  <si>
+    <t>Al Clarke</t>
+  </si>
+  <si>
+    <t>Trying to get a process similar to Compliance and Health and Safety where biodiversity must be factored into the process before a project takes place, similarly to how asbestos checks must be done before any works can commence.</t>
   </si>
   <si>
     <t>Pillar</t>
@@ -1214,13 +1240,16 @@
     <t>Strategy item</t>
   </si>
   <si>
+    <t>Johanna Willi, Clare Maynard</t>
+  </si>
+  <si>
     <t>Native plants</t>
   </si>
   <si>
     <t>BAP revision Dec23: propagate Fife aspen and support this nationally declining species. Could ask Botanics if they could assist - possibly in partnership with iconic tree propagation group (University/Botanics/Adam Riedi)</t>
   </si>
   <si>
-    <t>Tree planting sites to be identified</t>
+    <t>Johanna to re-start tree propagation group. Collect stock from Lommonds and highlands</t>
   </si>
   <si>
     <t>Invertebrates, birds, rare salt-tolerant native plants, badgers, deer, small mammals</t>
@@ -1238,7 +1267,7 @@
     <t>Tree nursery No propogation; botanics - action for Harry</t>
   </si>
   <si>
-    <t>Remove invasive non-native animals throughout the Estates</t>
+    <t>Remove - Remove invasive non-native animals throughout the Estates</t>
   </si>
   <si>
     <t xml:space="preserve"> S = Remove invasive species, including (not limited to) American Mink; Grey Squirrel; promote native species that may control them (Otters, White-tailed Eagles)
@@ -1248,6 +1277,9 @@
 T = Possibly long term because we can only act on University land and so there may be a perpetual immigration problem.</t>
   </si>
   <si>
+    <t>Requires professional specialist</t>
+  </si>
+  <si>
     <t>Otters
 Red Squirrels</t>
   </si>
@@ -1309,6 +1341,9 @@
     <t>Area to be confirmed after consultation. Does it require chipper, will compost be reused on site</t>
   </si>
   <si>
+    <t>Jan26: John Reid in discussion with Harry Watkins re composting site at Botanics for use by University.</t>
+  </si>
+  <si>
     <t>Swilken Burn</t>
   </si>
   <si>
@@ -1327,6 +1362,9 @@
   </si>
   <si>
     <t>School of Biology supported by the Estates Maintanance Team</t>
+  </si>
+  <si>
+    <t>Weed and thin pond vegetation</t>
   </si>
   <si>
     <t>Aquatic invertebrates
@@ -1443,9 +1481,6 @@
     <t>Supporting amphibians and reptiles</t>
   </si>
   <si>
-    <t>Meeting/discussion with Harry to get relationship of Botanics with BAP and University Biodiversity Strategy formally written down in all the right places</t>
-  </si>
-  <si>
     <t>S = Promote habitat management which ensures that badgers have access to all resources necessary for continued survival and ensures protection from human disturbance.
 M = Measurable by research.
 A = Depends on availability of expertise and volunteers.
@@ -1553,9 +1588,6 @@
 A = As long as surveys are carried out
 R = There is a legal requirement the ensure that certain species are not disturbed/harmed by building works. 
 T = By mid-2019, continuing"</t>
-  </si>
-  <si>
-    <t>Keith Thomason</t>
   </si>
   <si>
     <t>Lobby key University project management personnel to consult with biodiversity experts pre-planning to stop waste of money and forever reinventing the wheel with consultants. BLG intern summer 2024 making mapping more relevant and accessible to general staff</t>
@@ -1903,6 +1935,9 @@
     <t>John Reid to update for each location. Flowerbeds must be justified otherwise wildlife planting; mapping and targets</t>
   </si>
   <si>
+    <t>Tree planting sites to be identified</t>
+  </si>
+  <si>
     <t>BAP revision Dec23: propate Fife aspen and support this nationally declining species. Could ask Botanics if they could assist - possibly in partnership with iconic tree propagation group (University/Botanics/Adam Riedi)</t>
   </si>
   <si>
@@ -2024,6 +2059,9 @@
     <t xml:space="preserve">Transition involved as Green Corridors and Meadows in the Making project partner. Third phase project partner in unsuccessful NRF bid. </t>
   </si>
   <si>
+    <t>Meeting/discussion with Harry to get relationship of Botanics with BAP and University Biodiversity Strategy formally written down in all the right places</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">communication and engagement  </t>
     </r>
@@ -2127,20 +2165,23 @@
 A = dependent on funding/research interest
 T = 2028</t>
   </si>
-  <si>
-    <t xml:space="preserve">Incorporate teaching spaces into habitat creation </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2688,46 +2729,46 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2736,10 +2777,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2748,71 +2789,71 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2853,33 +2894,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2888,48 +2929,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2948,38 +2989,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2990,17 +3031,17 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3009,7 +3050,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3021,39 +3062,39 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3062,34 +3103,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3098,20 +3139,20 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3120,10 +3161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3135,10 +3176,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3153,7 +3194,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3162,10 +3203,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3174,10 +3215,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3189,7 +3230,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3204,7 +3245,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3213,41 +3254,44 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3355,9 +3399,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3395,7 +3439,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3501,7 +3545,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3643,7 +3687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3651,16 +3695,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F2F7B6-167F-48F0-8E37-93061261A30C}">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="W43" sqref="W43"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -3763,7 +3807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="90">
+    <row r="3" spans="1:23" ht="90.95">
       <c r="A3" s="161" t="s">
         <v>24</v>
       </c>
@@ -3801,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="165.75">
+    <row r="4" spans="1:23" ht="168.95">
       <c r="A4" s="166" t="s">
         <v>24</v>
       </c>
@@ -3854,7 +3898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="135">
+    <row r="5" spans="1:23" ht="117">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -3910,7 +3954,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="229.5">
+    <row r="6" spans="1:23" ht="221.1">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -4028,7 +4072,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="114.75">
+    <row r="8" spans="1:23" ht="117">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -4066,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="135">
+    <row r="9" spans="1:23" ht="129.94999999999999">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
@@ -4107,7 +4151,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="240">
+    <row r="10" spans="1:23" ht="231.95">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
@@ -4148,7 +4192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="180">
+    <row r="11" spans="1:23" ht="159.6">
       <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
@@ -4192,7 +4236,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="127.5">
+    <row r="12" spans="1:23" ht="121.5">
       <c r="A12" s="10" t="s">
         <v>81</v>
       </c>
@@ -4233,7 +4277,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="140.25">
+    <row r="13" spans="1:23" ht="143.1">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -4274,7 +4318,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="140.25">
+    <row r="14" spans="1:23" ht="129.94999999999999">
       <c r="A14" s="18" t="s">
         <v>24</v>
       </c>
@@ -4306,11 +4350,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="76.5">
+    <row r="15" spans="1:23" ht="104.1">
       <c r="A15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="116" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="116" t="s">
@@ -4328,36 +4372,38 @@
       <c r="G15" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
+      <c r="H15" s="169" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="169" t="s">
+        <v>40</v>
+      </c>
       <c r="J15" s="169" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K15" s="170">
         <v>10</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="114.75">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="39">
       <c r="A16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="116" t="s">
+      <c r="C16" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="D16" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="167" t="s">
+      <c r="E16" s="168"/>
+      <c r="F16" s="116" t="s">
         <v>107</v>
-      </c>
-      <c r="E16" s="168" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="116" t="s">
-        <v>109</v>
       </c>
       <c r="G16" s="125" t="s">
         <v>30</v>
@@ -4366,43 +4412,45 @@
         <v>39</v>
       </c>
       <c r="I16" s="169" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J16" s="169" t="s">
         <v>41</v>
       </c>
       <c r="K16" s="170">
-        <v>10</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="45">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="43.5">
       <c r="A17" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B17" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="167" t="s">
+      <c r="E17" s="168" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="168"/>
       <c r="F17" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="169" t="s">
         <v>39</v>
       </c>
       <c r="I17" s="169" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J17" s="169" t="s">
         <v>41</v>
@@ -4413,10 +4461,13 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="45">
+      <c r="W17" s="61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="156">
       <c r="A18" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B18" s="116" t="s">
         <v>113</v>
@@ -4428,78 +4479,79 @@
         <v>115</v>
       </c>
       <c r="E18" s="168" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="116" t="s">
         <v>116</v>
-      </c>
-      <c r="F18" s="116" t="s">
-        <v>47</v>
       </c>
       <c r="G18" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="169" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="I18" s="169" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J18" s="169" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K18" s="170">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="W18" s="61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="153">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="246.95">
       <c r="A19" s="10" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" s="116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D19" s="167" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="168" t="s">
-        <v>46</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E19" s="168"/>
       <c r="F19" s="116" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="G19" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="169" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I19" s="169" t="s">
         <v>32</v>
       </c>
       <c r="J19" s="169" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="K19" s="170">
         <v>1</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="242.25">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="W19" s="205" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="72.599999999999994">
       <c r="A20" s="10" t="s">
         <v>81</v>
       </c>
@@ -4512,50 +4564,67 @@
       <c r="D20" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="168"/>
+      <c r="E20" s="168" t="s">
+        <v>126</v>
+      </c>
       <c r="F20" s="116" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G20" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="169" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="I20" s="169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J20" s="169" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="K20" s="170">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>1</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="75">
-      <c r="A21" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="116" t="s">
-        <v>126</v>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="72.599999999999994">
+      <c r="A21" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="125" t="s">
+        <v>128</v>
       </c>
       <c r="C21" s="116" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D21" s="167" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E21" s="168" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="F21" s="116" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G21" s="116" t="s">
         <v>30</v>
@@ -4564,142 +4633,133 @@
         <v>31</v>
       </c>
       <c r="I21" s="169" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J21" s="169" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
       <c r="T21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="75">
-      <c r="A22" s="76" t="s">
+      <c r="W21" s="205" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="57.95">
+      <c r="A22" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="125" t="s">
-        <v>131</v>
+      <c r="B22" s="116" t="s">
+        <v>133</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D22" s="167" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E22" s="168" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F22" s="116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="169" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="I22" s="169" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J22" s="169" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K22" s="170">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="75">
-      <c r="A23" s="171" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="116" t="s">
-        <v>135</v>
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="405.95">
+      <c r="A23" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="125" t="s">
+        <v>136</v>
       </c>
       <c r="C23" s="116" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D23" s="167" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E23" s="168" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="F23" s="116" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G23" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="169" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I23" s="169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23" s="169" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="K23" s="170">
         <v>1</v>
       </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="409.5">
-      <c r="A24" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="125" t="s">
-        <v>138</v>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="W23" s="61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="159.6">
+      <c r="A24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>142</v>
       </c>
       <c r="C24" s="116" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D24" s="167" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E24" s="168" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F24" s="116" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G24" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="169" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="I24" s="169" t="s">
         <v>32</v>
@@ -4710,132 +4770,126 @@
       <c r="K24" s="170">
         <v>1</v>
       </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="W24" s="61" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="195">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="W24" s="202" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="104.1">
       <c r="A25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="115" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="B25" s="116" t="s">
+        <v>149</v>
       </c>
       <c r="C25" s="116" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D25" s="167" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="116" t="s">
         <v>146</v>
-      </c>
-      <c r="E25" s="168" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="116" t="s">
-        <v>148</v>
       </c>
       <c r="G25" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="169" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="169" t="s">
-        <v>32</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I25" s="169"/>
       <c r="J25" s="169" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K25" s="170">
         <v>1</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
       <c r="Q25">
         <v>1</v>
       </c>
-      <c r="W25" s="202" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="120">
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="207.95">
       <c r="A26" s="10" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="B26" s="116" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C26" s="116" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="167" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E26" s="168" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="F26" s="116" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G26" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="169" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="169"/>
+        <v>117</v>
+      </c>
+      <c r="I26" s="169" t="s">
+        <v>32</v>
+      </c>
       <c r="J26" s="169" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="K26" s="170">
         <v>1</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="216.75">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="143.1">
       <c r="A27" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C27" s="116" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D27" s="167" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E27" s="168" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="F27" s="116" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G27" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="169" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="I27" s="169" t="s">
         <v>32</v>
@@ -4844,106 +4898,109 @@
         <v>60</v>
       </c>
       <c r="K27" s="170">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="140.25">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="129.94999999999999">
       <c r="A28" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="116" t="s">
-        <v>159</v>
+        <v>81</v>
+      </c>
+      <c r="B28" s="125" t="s">
+        <v>161</v>
       </c>
       <c r="C28" s="116" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D28" s="167" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E28" s="168" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F28" s="116" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="G28" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H28" s="169" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I28" s="169" t="s">
         <v>32</v>
       </c>
       <c r="J28" s="169" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K28" s="170">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="140.25">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="W28" s="61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="143.1">
       <c r="A29" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="125" t="s">
-        <v>163</v>
+        <v>24</v>
+      </c>
+      <c r="B29" s="116" t="s">
+        <v>165</v>
       </c>
       <c r="C29" s="116" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="D29" s="167" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E29" s="168" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F29" s="116" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G29" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="169" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I29" s="169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J29" s="169" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="K29" s="170">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="L29">
         <v>1</v>
       </c>
       <c r="W29" s="61" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="165.75">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="182.1">
       <c r="A30" s="10" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C30" s="116" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D30" s="167" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E30" s="168" t="s">
         <v>46</v>
@@ -4961,36 +5018,36 @@
         <v>33</v>
       </c>
       <c r="J30" s="169" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="K30" s="170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="W30" s="61" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="178.5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="129.94999999999999">
       <c r="A31" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="116" t="s">
-        <v>170</v>
+        <v>24</v>
+      </c>
+      <c r="B31" s="125" t="s">
+        <v>171</v>
       </c>
       <c r="C31" s="116" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="D31" s="167" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E31" s="168" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F31" s="116" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="G31" s="116" t="s">
         <v>30</v>
@@ -5001,191 +5058,187 @@
       <c r="I31" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="169" t="s">
-        <v>33</v>
-      </c>
+      <c r="J31" s="169"/>
       <c r="K31" s="170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
-      <c r="W31" s="61" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="140.25">
+    </row>
+    <row r="32" spans="1:23" ht="101.45">
       <c r="A32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="125" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="116" t="s">
+      <c r="B32" s="116" t="s">
         <v>174</v>
+      </c>
+      <c r="C32" s="125" t="s">
+        <v>105</v>
       </c>
       <c r="D32" s="167" t="s">
         <v>175</v>
       </c>
       <c r="E32" s="168" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="F32" s="116" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="G32" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="169" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I32" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="J32" s="169"/>
+      <c r="J32" s="169" t="s">
+        <v>60</v>
+      </c>
       <c r="K32" s="170">
         <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="120">
+      <c r="W32" s="205" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="57.95">
       <c r="A33" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="116" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="125" t="s">
-        <v>100</v>
+        <v>179</v>
+      </c>
+      <c r="C33" s="116" t="s">
+        <v>180</v>
       </c>
       <c r="D33" s="167" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E33" s="168" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="F33" s="116" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="G33" s="116" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="169" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I33" s="169" t="s">
         <v>33</v>
       </c>
       <c r="J33" s="169" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K33" s="170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="W33" s="205" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="75">
+    </row>
+    <row r="34" spans="1:23" ht="72.599999999999994">
       <c r="A34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="116" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" s="116" t="s">
+      <c r="B34" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="D34" s="167" t="s">
+      <c r="C34" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="E34" s="168" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="116" t="s">
+      <c r="E34" s="197" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="125" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="125" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="169" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I34" s="169" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J34" s="169" t="s">
         <v>41</v>
       </c>
       <c r="K34" s="170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" ht="75">
+      <c r="W34" s="61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="60.75">
       <c r="A35" s="10" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B35" s="125" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C35" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="125" t="s">
-        <v>185</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D35" s="125"/>
       <c r="E35" s="197" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F35" s="125" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G35" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="169" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="169" t="s">
-        <v>40</v>
-      </c>
+      <c r="H35" s="169"/>
+      <c r="I35" s="169"/>
       <c r="J35" s="169" t="s">
         <v>41</v>
       </c>
       <c r="K35" s="170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="W35" s="61" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="60">
+      <c r="W35" s="205" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="57.95">
       <c r="A36" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B36" s="125" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C36" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="125"/>
-      <c r="E36" s="197" t="s">
-        <v>190</v>
-      </c>
-      <c r="F36" s="125" t="s">
-        <v>191</v>
+        <v>105</v>
+      </c>
+      <c r="D36" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="168" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="116" t="s">
+        <v>135</v>
       </c>
       <c r="G36" s="125" t="s">
         <v>30</v>
@@ -5201,25 +5254,28 @@
       <c r="L36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="75">
-      <c r="A37" s="10" t="s">
-        <v>104</v>
+      <c r="W36" s="61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="43.5">
+      <c r="A37" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="B37" s="125" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C37" s="125" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="D37" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="168" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="116" t="s">
-        <v>137</v>
+        <v>194</v>
+      </c>
+      <c r="E37" s="197" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="125" t="s">
+        <v>195</v>
       </c>
       <c r="G37" s="125" t="s">
         <v>30</v>
@@ -5227,155 +5283,159 @@
       <c r="H37" s="169"/>
       <c r="I37" s="169"/>
       <c r="J37" s="169" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="170">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="57.95">
+      <c r="A38" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="173" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="173" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="168" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="173" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="174" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="174" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="K37" s="170">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="W37" s="61" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="60">
-      <c r="A38" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="125" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="E38" s="197" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38" s="125" t="s">
-        <v>196</v>
-      </c>
-      <c r="G38" s="125" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="169" t="s">
-        <v>60</v>
-      </c>
-      <c r="K38" s="170">
-        <v>1</v>
+      <c r="K38" s="175">
+        <v>3</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="75">
-      <c r="A39" s="172" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="173" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="173" t="s">
+    <row r="39" spans="1:23" ht="174">
+      <c r="A39" s="160" t="s">
         <v>198</v>
       </c>
-      <c r="E39" s="168" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="173" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="174" t="s">
+      <c r="B39" s="159" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="160" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="176" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="177" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="160" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="160" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" s="178" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="178" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="178" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="179">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39" s="61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="117">
+      <c r="A40" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="180" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="181" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="89" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="174" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="174" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" s="175">
-        <v>3</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="180">
-      <c r="A40" s="160" t="s">
-        <v>199</v>
-      </c>
-      <c r="B40" s="159" t="s">
-        <v>200</v>
-      </c>
-      <c r="C40" s="160" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="176" t="s">
-        <v>202</v>
-      </c>
-      <c r="E40" s="177" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="160" t="s">
-        <v>204</v>
-      </c>
-      <c r="G40" s="160" t="s">
-        <v>205</v>
-      </c>
-      <c r="H40" s="178" t="s">
-        <v>31</v>
-      </c>
       <c r="I40" s="178" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J40" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="K40" s="179">
+      <c r="K40" s="182">
         <v>2</v>
       </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40" s="61" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="140.25">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="W40" s="201" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="182.1">
       <c r="A41" s="89" t="s">
-        <v>199</v>
-      </c>
-      <c r="B41" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" s="88" t="s">
-        <v>208</v>
+        <v>198</v>
+      </c>
+      <c r="B41" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="89" t="s">
+        <v>213</v>
       </c>
       <c r="D41" s="180" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E41" s="181" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F41" s="89" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G41" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H41" s="178" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I41" s="178" t="s">
         <v>40</v>
@@ -5384,45 +5444,43 @@
         <v>41</v>
       </c>
       <c r="K41" s="182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
-      <c r="W41" s="201" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="178.5">
+      <c r="W41" s="61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="106.5">
       <c r="A42" s="89" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="B42" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="89" t="s">
-        <v>214</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C42" s="89"/>
       <c r="D42" s="180" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E42" s="181" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="F42" s="89" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G42" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H42" s="178" t="s">
         <v>31</v>
       </c>
       <c r="I42" s="178" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J42" s="178" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K42" s="182">
         <v>1</v>
@@ -5431,30 +5489,30 @@
         <v>1</v>
       </c>
       <c r="W42" s="61" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="178.5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="182.1">
       <c r="A43" s="89" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B43" s="89" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D43" s="180" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E43" s="181" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="89" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G43" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H43" s="178" t="s">
         <v>39</v>
@@ -5472,30 +5530,30 @@
         <v>1</v>
       </c>
       <c r="W43" s="61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="105">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="87">
       <c r="A44" s="89" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B44" s="89" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C44" s="89" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D44" s="180" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E44" s="181" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F44" s="89" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G44" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H44" s="178" t="s">
         <v>39</v>
@@ -5513,30 +5571,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="60">
+    <row r="45" spans="1:23" ht="43.5">
       <c r="A45" s="89" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="89" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C45" s="89" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D45" s="180" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E45" s="181" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F45" s="89" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G45" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H45" s="178" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I45" s="178" t="s">
         <v>33</v>
@@ -5551,30 +5609,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="60">
+    <row r="46" spans="1:23" ht="51.95">
       <c r="A46" s="89" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D46" s="180" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E46" s="181" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F46" s="89" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G46" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H46" s="178" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I46" s="178"/>
       <c r="J46" s="178" t="s">
@@ -5587,27 +5645,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="75">
+    <row r="47" spans="1:23" ht="72.599999999999994">
       <c r="A47" s="89" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B47" s="88" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C47" s="88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D47" s="180" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E47" s="181" t="s">
         <v>46</v>
       </c>
       <c r="F47" s="89" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G47" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H47" s="178" t="s">
         <v>39</v>
@@ -5625,30 +5683,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="216.75">
+    <row r="48" spans="1:23" ht="207.95">
       <c r="A48" s="89" t="s">
         <v>24</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C48" s="89" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D48" s="180" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E48" s="181" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="F48" s="89" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G48" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H48" s="178" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I48" s="178" t="s">
         <v>32</v>
@@ -5663,27 +5721,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="114.75">
+    <row r="49" spans="1:23" ht="117">
       <c r="A49" s="89" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D49" s="180" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E49" s="181" t="s">
         <v>97</v>
       </c>
       <c r="F49" s="89" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G49" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H49" s="178" t="s">
         <v>31</v>
@@ -5701,18 +5759,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="191.25">
+    <row r="50" spans="1:23" ht="182.1">
       <c r="A50" s="89" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="89" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D50" s="180" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E50" s="181" t="s">
         <v>97</v>
@@ -5721,7 +5779,7 @@
         <v>97</v>
       </c>
       <c r="G50" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H50" s="178" t="s">
         <v>39</v>
@@ -5739,30 +5797,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="51">
+    <row r="51" spans="1:23" ht="51.95">
       <c r="A51" s="89" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B51" s="102" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C51" s="89" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D51" s="180" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E51" s="181" t="s">
         <v>97</v>
       </c>
       <c r="F51" s="89" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G51" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H51" s="178" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I51" s="178" t="s">
         <v>33</v>
@@ -5777,27 +5835,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="153">
+    <row r="52" spans="1:23" ht="156">
       <c r="A52" s="89" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B52" s="89" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D52" s="180" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E52" s="181" t="s">
         <v>97</v>
       </c>
       <c r="F52" s="89" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G52" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H52" s="178" t="s">
         <v>39</v>
@@ -5815,30 +5873,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="280.5">
+    <row r="53" spans="1:23" ht="260.10000000000002">
       <c r="A53" s="89" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B53" s="89" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C53" s="89" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D53" s="180" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E53" s="181" t="s">
         <v>97</v>
       </c>
       <c r="F53" s="180" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G53" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H53" s="178" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I53" s="178"/>
       <c r="J53" s="178" t="s">
@@ -5849,27 +5907,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="114.75">
+    <row r="54" spans="1:23" ht="117">
       <c r="A54" s="89" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B54" s="89" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C54" s="89" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D54" s="180" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E54" s="181" t="s">
         <v>97</v>
       </c>
       <c r="F54" s="180" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G54" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H54" s="178" t="s">
         <v>39</v>
@@ -5887,30 +5945,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="222" customHeight="1">
+    <row r="55" spans="1:23" ht="222" customHeight="1">
       <c r="A55" s="107" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B55" s="107" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C55" s="107" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D55" s="107" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E55" s="198" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F55" s="107" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G55" s="107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H55" s="178" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I55" s="178" t="s">
         <v>32</v>
@@ -5925,26 +5983,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="51">
+    <row r="56" spans="1:23" ht="51.95">
       <c r="A56" s="89" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B56" s="107" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C56" s="185" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="107"/>
       <c r="E56" s="107"/>
       <c r="F56" s="180" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G56" s="107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H56" s="178" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I56" s="178" t="s">
         <v>32</v>
@@ -5959,26 +6017,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="90">
+    <row r="57" spans="1:23" ht="72.599999999999994">
       <c r="A57" s="183" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B57" s="89" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C57" s="107" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D57" s="89"/>
       <c r="E57" s="89"/>
       <c r="F57" s="180" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G57" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H57" s="178" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I57" s="178" t="s">
         <v>32</v>
@@ -5991,27 +6049,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="45">
+    <row r="58" spans="1:23" ht="43.5">
       <c r="A58" s="89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B58" s="89" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C58" s="107" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="89" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E58" s="89" t="s">
         <v>97</v>
       </c>
       <c r="F58" s="180" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G58" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H58" s="178" t="s">
         <v>39</v>
@@ -6027,23 +6085,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="60">
+    <row r="59" spans="1:23" ht="57.95">
       <c r="A59" s="172" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B59" s="184" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C59" s="185" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="184"/>
       <c r="E59" s="184"/>
       <c r="F59" s="180" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G59" s="184" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H59" s="186" t="s">
         <v>39</v>
@@ -6059,23 +6117,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="75">
+    <row r="60" spans="1:23" ht="167.25">
       <c r="A60" s="188" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B60" s="189" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="190" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="189"/>
+      <c r="E60" s="189" t="s">
+        <v>282</v>
+      </c>
+      <c r="F60" s="196" t="s">
         <v>277</v>
       </c>
-      <c r="C60" s="190" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" s="189"/>
-      <c r="E60" s="189"/>
-      <c r="F60" s="196" t="s">
-        <v>273</v>
-      </c>
       <c r="G60" s="189" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H60" s="191" t="s">
         <v>31</v>
@@ -6091,23 +6151,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="45">
+    <row r="61" spans="1:23" ht="43.5">
       <c r="A61" s="183" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B61" s="76" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C61" s="193" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" s="76"/>
       <c r="E61" s="76"/>
       <c r="F61" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G61" s="189" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H61" s="191" t="s">
         <v>31</v>
@@ -6123,28 +6183,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="45">
+    <row r="62" spans="1:23" ht="43.5">
       <c r="A62" s="195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B62" s="76" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C62" s="193" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D62" s="76"/>
       <c r="E62" s="76" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F62" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G62" s="189" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H62" s="191" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I62" s="191" t="s">
         <v>40</v>
@@ -6157,28 +6217,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="65.25" customHeight="1">
-      <c r="A63" s="183" t="s">
+    <row r="63" spans="1:23" ht="65.25" customHeight="1">
+      <c r="A63" s="166" t="s">
         <v>81</v>
       </c>
       <c r="B63" s="76" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C63" s="193" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D63" s="76"/>
       <c r="E63" s="76" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="196" t="s">
+        <v>288</v>
+      </c>
+      <c r="G63" s="189" t="s">
         <v>283</v>
       </c>
-      <c r="G63" s="189" t="s">
-        <v>278</v>
-      </c>
       <c r="H63" s="191" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I63" s="191" t="s">
         <v>33</v>
@@ -6190,24 +6250,27 @@
       <c r="L63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="60">
+      <c r="W63" s="205" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="43.5">
       <c r="A64" s="183" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B64" s="76" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C64" s="193" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D64" s="76"/>
       <c r="E64" s="76"/>
       <c r="F64" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G64" s="189" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H64" s="191" t="s">
         <v>39</v>
@@ -6223,6 +6286,44 @@
         <v>1</v>
       </c>
     </row>
+    <row r="65" spans="1:23" ht="121.5">
+      <c r="A65" s="183" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="C65" s="193" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="F65" s="196" t="s">
+        <v>277</v>
+      </c>
+      <c r="G65" s="189" t="s">
+        <v>283</v>
+      </c>
+      <c r="H65" s="191" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="191" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="191" t="s">
+        <v>60</v>
+      </c>
+      <c r="K65" s="194"/>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="W65" s="206" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="15"/>
   </sheetData>
   <conditionalFormatting sqref="A2:A56">
     <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="achieved and ongoing">
@@ -6254,11 +6355,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
@@ -6304,19 +6405,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="144" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I1" s="143" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="146" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K1" s="144" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M1" s="41" t="s">
         <v>6</v>
@@ -6328,19 +6429,19 @@
         <v>10</v>
       </c>
       <c r="P1" s="142" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q1" s="142" t="s">
         <v>23</v>
       </c>
       <c r="R1" s="142" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S1" s="142" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="T1" s="142" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="U1" s="142" t="s">
         <v>46</v>
@@ -6348,7 +6449,7 @@
     </row>
     <row r="2" spans="1:21" ht="42" customHeight="1">
       <c r="A2" s="137" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="138"/>
@@ -6371,7 +6472,7 @@
       <c r="T2" s="84"/>
       <c r="U2" s="155"/>
     </row>
-    <row r="3" spans="1:21" ht="180">
+    <row r="3" spans="1:21" ht="159.6">
       <c r="A3" s="147" t="s">
         <v>24</v>
       </c>
@@ -6397,19 +6498,19 @@
         <v>1</v>
       </c>
       <c r="I3" s="153" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="J3" s="152" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="K3" s="154" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="L3" s="122" t="s">
         <v>31</v>
       </c>
       <c r="M3" s="123" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N3" s="124" t="s">
         <v>32</v>
@@ -6426,7 +6527,7 @@
       <c r="T3" s="140"/>
       <c r="U3" s="140"/>
     </row>
-    <row r="4" spans="1:21" ht="405">
+    <row r="4" spans="1:21" ht="377.1">
       <c r="A4" s="23" t="s">
         <v>24</v>
       </c>
@@ -6452,13 +6553,13 @@
         <v>1</v>
       </c>
       <c r="I4" s="120" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="J4" s="119" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="K4" s="125" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="L4" s="122" t="s">
         <v>39</v>
@@ -6476,14 +6577,14 @@
         <v>2</v>
       </c>
       <c r="Q4" s="203" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="R4" s="61"/>
       <c r="S4" s="61"/>
       <c r="T4" s="61"/>
       <c r="U4" s="61"/>
     </row>
-    <row r="5" spans="1:21" ht="255">
+    <row r="5" spans="1:21" ht="231.95">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -6509,13 +6610,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="119" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="J5" s="119" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="K5" s="116" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="L5" s="122" t="s">
         <v>39</v>
@@ -6540,7 +6641,7 @@
       <c r="T5" s="61"/>
       <c r="U5" s="61"/>
     </row>
-    <row r="6" spans="1:21" ht="360">
+    <row r="6" spans="1:21" ht="333.6">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -6566,19 +6667,19 @@
         <v>1</v>
       </c>
       <c r="I6" s="119" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J6" s="119" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="K6" s="116" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L6" s="122" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="123" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N6" s="124" t="s">
         <v>33</v>
@@ -6623,13 +6724,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="119" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J7" s="119" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="K7" s="116" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="L7" s="122" t="s">
         <v>31</v>
@@ -6654,7 +6755,7 @@
       <c r="T7" s="61"/>
       <c r="U7" s="61"/>
     </row>
-    <row r="8" spans="1:21" ht="180">
+    <row r="8" spans="1:21" ht="159.6">
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
@@ -6680,13 +6781,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="120" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="J8" s="126" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="K8" s="116" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L8" s="122" t="s">
         <v>31</v>
@@ -6709,7 +6810,7 @@
       <c r="T8" s="61"/>
       <c r="U8" s="61"/>
     </row>
-    <row r="9" spans="1:21" ht="330">
+    <row r="9" spans="1:21" ht="290.10000000000002">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -6735,10 +6836,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="120" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="J9" s="127" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="K9" s="116"/>
       <c r="L9" s="122" t="s">
@@ -6790,13 +6891,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="119" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="J10" s="119" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="K10" s="116" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="L10" s="122" t="s">
         <v>39</v>
@@ -6821,7 +6922,7 @@
       <c r="T10" s="61"/>
       <c r="U10" s="61"/>
     </row>
-    <row r="11" spans="1:21" ht="409.5">
+    <row r="11" spans="1:21" ht="391.5">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -6847,10 +6948,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="119" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="J11" s="119" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="K11" s="128"/>
       <c r="L11" s="122" t="s">
@@ -6872,7 +6973,7 @@
         <v>80</v>
       </c>
       <c r="R11" s="61" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="S11" s="61"/>
       <c r="T11" s="61"/>
@@ -6880,7 +6981,7 @@
     </row>
     <row r="12" spans="1:21" ht="141" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B12" s="116" t="s">
         <v>82</v>
@@ -6892,7 +6993,7 @@
         <v>84</v>
       </c>
       <c r="E12" s="118" t="s">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="F12" s="116" t="s">
         <v>86</v>
@@ -6904,11 +7005,11 @@
         <v>1</v>
       </c>
       <c r="I12" s="120" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="J12" s="119"/>
       <c r="K12" s="125" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="L12" s="122" t="s">
         <v>39</v>
@@ -6926,7 +7027,7 @@
         <v>3</v>
       </c>
       <c r="Q12" s="61" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="R12" s="61"/>
       <c r="S12" s="61"/>
@@ -6959,11 +7060,11 @@
         <v>1</v>
       </c>
       <c r="I13" s="119" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="J13" s="119"/>
       <c r="K13" s="115" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="L13" s="122" t="s">
         <v>31</v>
@@ -6986,7 +7087,7 @@
       <c r="T13" s="61"/>
       <c r="U13" s="61"/>
     </row>
-    <row r="14" spans="1:21" ht="127.5">
+    <row r="14" spans="1:21" ht="129.94999999999999">
       <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
@@ -7012,11 +7113,11 @@
         <v>1</v>
       </c>
       <c r="I14" s="120" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="J14" s="119"/>
       <c r="K14" s="116" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L14" s="129"/>
       <c r="M14" s="129"/>
@@ -7026,7 +7127,7 @@
         <v>3</v>
       </c>
       <c r="Q14" s="61" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="R14" s="61">
         <v>1</v>
@@ -7035,24 +7136,24 @@
       <c r="T14" s="61"/>
       <c r="U14" s="61"/>
     </row>
-    <row r="15" spans="1:21" ht="375">
+    <row r="15" spans="1:21" ht="348">
       <c r="A15" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C15" s="116" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E15" s="118" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="F15" s="116" t="s">
-        <v>103</v>
+        <v>339</v>
       </c>
       <c r="G15" s="121" t="s">
         <v>30</v>
@@ -7061,13 +7162,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="119" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="J15" s="119" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="K15" s="115" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="L15" s="129"/>
       <c r="M15" s="129"/>
@@ -7077,33 +7178,33 @@
         <v>10</v>
       </c>
       <c r="Q15" s="61" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="R15" s="61" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="S15" s="61"/>
       <c r="T15" s="61"/>
       <c r="U15" s="61"/>
     </row>
-    <row r="16" spans="1:21" s="52" customFormat="1" ht="90">
+    <row r="16" spans="1:21" s="52" customFormat="1" ht="87">
       <c r="A16" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B16" s="116" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E16" s="118" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G16" s="121" t="s">
         <v>30</v>
@@ -7112,13 +7213,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="120" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="J16" s="119" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="K16" s="125" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="L16" s="122" t="s">
         <v>39</v>
@@ -7136,29 +7237,29 @@
         <v>10</v>
       </c>
       <c r="Q16" s="61" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="R16" s="61"/>
       <c r="S16" s="61"/>
       <c r="T16" s="61"/>
       <c r="U16" s="61"/>
     </row>
-    <row r="17" spans="1:21" ht="135">
+    <row r="17" spans="1:21" ht="129.94999999999999">
       <c r="A17" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="E17" s="118"/>
       <c r="F17" s="116" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G17" s="121" t="s">
         <v>30</v>
@@ -7167,17 +7268,17 @@
         <v>1</v>
       </c>
       <c r="I17" s="120" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J17" s="119"/>
       <c r="K17" s="116" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="L17" s="122" t="s">
         <v>39</v>
       </c>
       <c r="M17" s="124" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N17" s="124" t="s">
         <v>32</v>
@@ -7196,16 +7297,16 @@
     </row>
     <row r="18" spans="1:21" ht="176.1" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B18" s="116" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C18" s="116" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="E18" s="118" t="s">
         <v>46</v>
@@ -7220,13 +7321,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="119" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="J18" s="119" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="K18" s="125" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="L18" s="122" t="s">
         <v>39</v>
@@ -7244,31 +7345,31 @@
         <v>3</v>
       </c>
       <c r="Q18" s="61" t="s">
-        <v>117</v>
+        <v>356</v>
       </c>
       <c r="R18" s="61"/>
       <c r="S18" s="61"/>
       <c r="T18" s="61"/>
       <c r="U18" s="61"/>
     </row>
-    <row r="19" spans="1:21" ht="153">
+    <row r="19" spans="1:21" ht="143.1">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C19" s="116" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="E19" s="118" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="116" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G19" s="116" t="s">
         <v>30</v>
@@ -7277,17 +7378,17 @@
         <v>1</v>
       </c>
       <c r="I19" s="119" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="J19" s="119" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="K19" s="116"/>
       <c r="L19" s="122" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M19" s="123" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="N19" s="124" t="s">
         <v>32</v>
@@ -7304,18 +7405,18 @@
       <c r="T19" s="61"/>
       <c r="U19" s="61"/>
     </row>
-    <row r="20" spans="1:21" ht="229.5">
+    <row r="20" spans="1:21" ht="207.95">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>123</v>
+        <v>362</v>
       </c>
       <c r="C20" s="116" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E20" s="118"/>
       <c r="F20" s="116" t="s">
@@ -7328,19 +7429,19 @@
         <v>1</v>
       </c>
       <c r="I20" s="119" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="J20" s="119" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="K20" s="125" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="L20" s="122" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M20" s="123" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="N20" s="124" t="s">
         <v>32</v>
@@ -7357,24 +7458,24 @@
       <c r="T20" s="61"/>
       <c r="U20" s="61"/>
     </row>
-    <row r="21" spans="1:21" ht="165.75">
+    <row r="21" spans="1:21" ht="168.95">
       <c r="A21" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B21" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="117" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="F21" s="116" t="s">
         <v>127</v>
-      </c>
-      <c r="D21" s="117" t="s">
-        <v>354</v>
-      </c>
-      <c r="E21" s="118" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="116" t="s">
-        <v>130</v>
       </c>
       <c r="G21" s="116" t="s">
         <v>30</v>
@@ -7383,19 +7484,19 @@
         <v>1</v>
       </c>
       <c r="I21" s="119" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J21" s="119" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="K21" s="116" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="L21" s="122" t="s">
         <v>31</v>
       </c>
       <c r="M21" s="123" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N21" s="124" t="s">
         <v>33</v>
@@ -7412,24 +7513,24 @@
       <c r="T21" s="61"/>
       <c r="U21" s="61"/>
     </row>
-    <row r="22" spans="1:21" ht="225">
+    <row r="22" spans="1:21" ht="203.1">
       <c r="A22" s="30" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B22" s="125" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="E22" s="118" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="116" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G22" s="116" t="s">
         <v>30</v>
@@ -7438,13 +7539,13 @@
         <v>1</v>
       </c>
       <c r="I22" s="119" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="J22" s="119" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="K22" s="125" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="L22" s="122" t="s">
         <v>31</v>
@@ -7465,24 +7566,24 @@
       <c r="T22" s="61"/>
       <c r="U22" s="61"/>
     </row>
-    <row r="23" spans="1:21" ht="114.75">
+    <row r="23" spans="1:21" ht="117">
       <c r="A23" s="32" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" s="116" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D23" s="117" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="E23" s="118" t="s">
         <v>97</v>
       </c>
       <c r="F23" s="116" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="G23" s="116" t="s">
         <v>30</v>
@@ -7491,19 +7592,19 @@
         <v>1</v>
       </c>
       <c r="I23" s="120" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="J23" s="119" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K23" s="116" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="L23" s="122" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M23" s="123" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="N23" s="124" t="s">
         <v>33</v>
@@ -7515,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="61" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="R23" s="61"/>
       <c r="S23" s="61"/>
@@ -7524,24 +7625,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="409.5">
+    <row r="24" spans="1:21" ht="405.95">
       <c r="A24" s="19" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B24" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="E24" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="117" t="s">
+      <c r="F24" s="116" t="s">
         <v>140</v>
-      </c>
-      <c r="E24" s="118" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="116" t="s">
-        <v>142</v>
       </c>
       <c r="G24" s="116" t="s">
         <v>30</v>
@@ -7550,19 +7651,19 @@
         <v>1</v>
       </c>
       <c r="I24" s="120" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="J24" s="119" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="K24" s="200" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="L24" s="122" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M24" s="123" t="s">
-        <v>103</v>
+        <v>339</v>
       </c>
       <c r="N24" s="124" t="s">
         <v>32</v>
@@ -7574,31 +7675,31 @@
         <v>1</v>
       </c>
       <c r="Q24" s="61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R24" s="61"/>
       <c r="S24" s="61"/>
       <c r="T24" s="61"/>
       <c r="U24" s="61"/>
     </row>
-    <row r="25" spans="1:21" ht="225">
+    <row r="25" spans="1:21" ht="188.45">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="116" t="s">
+      <c r="E25" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="F25" s="119" t="s">
         <v>146</v>
-      </c>
-      <c r="E25" s="118" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="119" t="s">
-        <v>148</v>
       </c>
       <c r="G25" s="119" t="s">
         <v>30</v>
@@ -7607,13 +7708,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="119" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="J25" s="130" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="K25" s="121" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="L25" s="122" t="s">
         <v>31</v>
@@ -7631,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="202" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R25" s="61"/>
       <c r="S25" s="61"/>
@@ -7640,24 +7741,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="52" customFormat="1" ht="150">
+    <row r="26" spans="1:21" s="52" customFormat="1" ht="130.5">
       <c r="A26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="116" t="s">
+      <c r="D26" s="117" t="s">
         <v>151</v>
-      </c>
-      <c r="C26" s="116" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="117" t="s">
-        <v>153</v>
       </c>
       <c r="E26" s="118" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="119" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G26" s="119" t="s">
         <v>30</v>
@@ -7666,28 +7767,26 @@
         <v>1</v>
       </c>
       <c r="I26" s="119" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="J26" s="130" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="K26" s="119" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="L26" s="122" t="s">
         <v>39</v>
       </c>
       <c r="M26" s="124" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N26" s="124"/>
       <c r="O26" s="124"/>
       <c r="P26" s="61">
         <v>1</v>
       </c>
-      <c r="Q26" s="61" t="s">
-        <v>374</v>
-      </c>
+      <c r="Q26" s="61"/>
       <c r="R26" s="61">
         <v>1</v>
       </c>
@@ -7695,24 +7794,24 @@
       <c r="T26" s="61"/>
       <c r="U26" s="61"/>
     </row>
-    <row r="27" spans="1:21" ht="180">
+    <row r="27" spans="1:21" ht="156">
       <c r="A27" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="117" t="s">
+        <v>387</v>
+      </c>
+      <c r="E27" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="117" t="s">
-        <v>375</v>
-      </c>
-      <c r="E27" s="118" t="s">
-        <v>157</v>
-      </c>
       <c r="F27" s="116" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G27" s="116" t="s">
         <v>30</v>
@@ -7721,19 +7820,19 @@
         <v>1</v>
       </c>
       <c r="I27" s="120" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="J27" s="119" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="K27" s="115" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="L27" s="122" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M27" s="123" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N27" s="124" t="s">
         <v>32</v>
@@ -7745,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="61" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="R27" s="61">
         <v>1</v>
@@ -7754,24 +7853,24 @@
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
     </row>
-    <row r="28" spans="1:21" ht="127.5">
+    <row r="28" spans="1:21" ht="129.94999999999999">
       <c r="A28" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B28" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="117" t="s">
         <v>159</v>
-      </c>
-      <c r="C28" s="116" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="117" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="118" t="s">
         <v>46</v>
       </c>
       <c r="F28" s="116" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G28" s="116" t="s">
         <v>30</v>
@@ -7780,13 +7879,13 @@
         <v>1</v>
       </c>
       <c r="I28" s="119" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="J28" s="119" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="K28" s="125" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="L28" s="122" t="s">
         <v>39</v>
@@ -7805,18 +7904,18 @@
       <c r="T28" s="61"/>
       <c r="U28" s="61"/>
     </row>
-    <row r="29" spans="1:21" ht="165">
+    <row r="29" spans="1:21" ht="130.5">
       <c r="A29" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B29" s="125" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="117" t="s">
         <v>163</v>
-      </c>
-      <c r="C29" s="116" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="117" t="s">
-        <v>165</v>
       </c>
       <c r="E29" s="118" t="s">
         <v>28</v>
@@ -7831,20 +7930,20 @@
         <v>1</v>
       </c>
       <c r="I29" s="120" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="J29" s="131" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="K29" s="125"/>
       <c r="L29" s="122" t="s">
         <v>31</v>
       </c>
       <c r="M29" s="123" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N29" s="124" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="O29" s="124" t="s">
         <v>41</v>
@@ -7853,25 +7952,25 @@
         <v>1</v>
       </c>
       <c r="Q29" s="61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R29" s="61"/>
       <c r="S29" s="61"/>
       <c r="T29" s="61"/>
       <c r="U29" s="61"/>
     </row>
-    <row r="30" spans="1:21" ht="195">
+    <row r="30" spans="1:21" ht="159.6">
       <c r="A30" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C30" s="116" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D30" s="117" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E30" s="118" t="s">
         <v>46</v>
@@ -7886,17 +7985,17 @@
         <v>1</v>
       </c>
       <c r="I30" s="120" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J30" s="124" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="K30" s="116"/>
       <c r="L30" s="122" t="s">
         <v>39</v>
       </c>
       <c r="M30" s="123" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N30" s="124" t="s">
         <v>33</v>
@@ -7906,25 +8005,25 @@
         <v>2</v>
       </c>
       <c r="Q30" s="61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R30" s="61"/>
       <c r="S30" s="61"/>
       <c r="T30" s="61"/>
       <c r="U30" s="61"/>
     </row>
-    <row r="31" spans="1:21" ht="153">
+    <row r="31" spans="1:21" ht="143.1">
       <c r="A31" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C31" s="116" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D31" s="117" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E31" s="118" t="s">
         <v>46</v>
@@ -7939,19 +8038,19 @@
         <v>1</v>
       </c>
       <c r="I31" s="119" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="J31" s="119" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="K31" s="125" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="L31" s="122" t="s">
         <v>39</v>
       </c>
       <c r="M31" s="123" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N31" s="124" t="s">
         <v>33</v>
@@ -7961,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R31" s="61">
         <v>1</v>
@@ -7972,24 +8071,24 @@
       <c r="T31" s="61"/>
       <c r="U31" s="61"/>
     </row>
-    <row r="32" spans="1:21" ht="114.75">
+    <row r="32" spans="1:21" ht="117">
       <c r="A32" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="116" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="117" t="s">
         <v>173</v>
-      </c>
-      <c r="C32" s="116" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" s="117" t="s">
-        <v>175</v>
       </c>
       <c r="E32" s="118" t="s">
         <v>97</v>
       </c>
       <c r="F32" s="116" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G32" s="116" t="s">
         <v>30</v>
@@ -7998,10 +8097,10 @@
         <v>1</v>
       </c>
       <c r="I32" s="120" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J32" s="119" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="K32" s="116"/>
       <c r="L32" s="122" t="s">
@@ -8025,24 +8124,24 @@
       <c r="T32" s="61"/>
       <c r="U32" s="61"/>
     </row>
-    <row r="33" spans="1:21" ht="360">
+    <row r="33" spans="1:21" ht="318.95">
       <c r="A33" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B33" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="117" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="117" t="s">
-        <v>392</v>
-      </c>
-      <c r="E33" s="118" t="s">
-        <v>178</v>
-      </c>
       <c r="F33" s="116" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G33" s="116" t="s">
         <v>30</v>
@@ -8051,19 +8150,19 @@
         <v>1</v>
       </c>
       <c r="I33" s="119" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="J33" s="119" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="K33" s="132" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="L33" s="122" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="123" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="N33" s="124" t="s">
         <v>33</v>
@@ -8075,31 +8174,31 @@
         <v>2</v>
       </c>
       <c r="Q33" s="61" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="R33" s="61"/>
       <c r="S33" s="61"/>
       <c r="T33" s="61"/>
       <c r="U33" s="61"/>
     </row>
-    <row r="34" spans="1:21" ht="114.75">
+    <row r="34" spans="1:21" ht="117">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="116" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C34" s="116" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D34" s="117" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="E34" s="118" t="s">
         <v>97</v>
       </c>
       <c r="F34" s="116" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G34" s="116" t="s">
         <v>30</v>
@@ -8108,17 +8207,17 @@
         <v>2</v>
       </c>
       <c r="I34" s="120" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="J34" s="119" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="K34" s="116"/>
       <c r="L34" s="122" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="123" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="N34" s="124" t="s">
         <v>33</v>
@@ -8135,12 +8234,12 @@
       <c r="T34" s="61"/>
       <c r="U34" s="61"/>
     </row>
-    <row r="35" spans="1:21" ht="240">
+    <row r="35" spans="1:21" ht="203.1">
       <c r="A35" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B35" s="125" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C35" s="133"/>
       <c r="D35" s="133"/>
@@ -8155,7 +8254,7 @@
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
       <c r="K35" s="121" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="L35" s="122" t="s">
         <v>31</v>
@@ -8171,31 +8270,31 @@
         <v>3</v>
       </c>
       <c r="Q35" s="61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R35" s="61"/>
       <c r="S35" s="61"/>
       <c r="T35" s="61"/>
       <c r="U35" s="61"/>
     </row>
-    <row r="36" spans="1:21" ht="165">
+    <row r="36" spans="1:21" ht="144.94999999999999">
       <c r="A36" s="19" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B36" s="121" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" s="133" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" s="121" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="E36" s="133" t="s">
-        <v>403</v>
+        <v>282</v>
       </c>
       <c r="F36" s="133" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G36" s="121" t="s">
         <v>30</v>
@@ -8206,7 +8305,7 @@
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
       <c r="K36" s="134" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="L36" s="122"/>
       <c r="M36" s="122"/>
@@ -8221,12 +8320,12 @@
       <c r="T36" s="61"/>
       <c r="U36" s="61"/>
     </row>
-    <row r="37" spans="1:21" ht="120">
+    <row r="37" spans="1:21" ht="116.1">
       <c r="A37" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B37" s="121" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C37" s="133"/>
       <c r="D37" s="133"/>
@@ -8241,7 +8340,7 @@
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
       <c r="K37" s="121" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="L37" s="122"/>
       <c r="M37" s="122"/>
@@ -8256,12 +8355,12 @@
       <c r="T37" s="61"/>
       <c r="U37" s="61"/>
     </row>
-    <row r="38" spans="1:21" ht="105">
+    <row r="38" spans="1:21" ht="87">
       <c r="A38" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B38" s="121" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="133"/>
@@ -8276,7 +8375,7 @@
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
       <c r="K38" s="121" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="L38" s="122"/>
       <c r="M38" s="122"/>
@@ -8284,22 +8383,22 @@
       <c r="O38" s="122"/>
       <c r="P38" s="61"/>
       <c r="Q38" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R38" s="61"/>
       <c r="S38" s="61"/>
       <c r="T38" s="61"/>
       <c r="U38" s="61"/>
     </row>
-    <row r="39" spans="1:21" s="52" customFormat="1" ht="75">
+    <row r="39" spans="1:21" s="52" customFormat="1" ht="72.599999999999994">
       <c r="A39" s="59" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B39" s="135" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" s="136" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D39" s="136"/>
       <c r="E39" s="136"/>
@@ -8317,7 +8416,7 @@
         <v>39</v>
       </c>
       <c r="M39" s="123" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="N39" s="124" t="s">
         <v>33</v>
@@ -8329,7 +8428,7 @@
         <v>3</v>
       </c>
       <c r="Q39" s="61" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="R39" s="61"/>
       <c r="S39" s="61"/>
@@ -8340,7 +8439,7 @@
     </row>
     <row r="40" spans="1:21" s="52" customFormat="1" ht="36">
       <c r="A40" s="86" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B40" s="85"/>
       <c r="C40" s="85"/>
@@ -8363,45 +8462,45 @@
       <c r="T40" s="84"/>
       <c r="U40" s="84"/>
     </row>
-    <row r="41" spans="1:21" ht="180">
+    <row r="41" spans="1:21" ht="159.6">
       <c r="A41" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B41" s="88" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C41" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="90" t="s">
+      <c r="E41" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="E41" s="91" t="s">
-        <v>203</v>
-      </c>
       <c r="F41" s="89" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="G41" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H41" s="89">
         <v>2</v>
       </c>
       <c r="I41" s="87" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="J41" s="199" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="K41" s="88" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="L41" s="92" t="s">
         <v>31</v>
       </c>
       <c r="M41" s="93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N41" s="94" t="s">
         <v>33</v>
@@ -8413,7 +8512,7 @@
         <v>2</v>
       </c>
       <c r="Q41" s="61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R41" s="61"/>
       <c r="S41" s="61">
@@ -8422,45 +8521,45 @@
       <c r="T41" s="61"/>
       <c r="U41" s="61"/>
     </row>
-    <row r="42" spans="1:21" ht="180">
+    <row r="42" spans="1:21" ht="159.6">
       <c r="A42" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="D42" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="E42" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="E42" s="91" t="s">
+      <c r="F42" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="F42" s="89" t="s">
-        <v>211</v>
-      </c>
       <c r="G42" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H42" s="89">
         <v>2</v>
       </c>
       <c r="I42" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J42" s="96" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="K42" s="89" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="L42" s="92" t="s">
         <v>39</v>
       </c>
       <c r="M42" s="93" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="N42" s="94" t="s">
         <v>40</v>
@@ -8472,7 +8571,7 @@
         <v>2</v>
       </c>
       <c r="Q42" s="201" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R42" s="61"/>
       <c r="S42" s="61">
@@ -8481,43 +8580,43 @@
       <c r="T42" s="61"/>
       <c r="U42" s="61"/>
     </row>
-    <row r="43" spans="1:21" ht="140.25">
+    <row r="43" spans="1:21" ht="129.94999999999999">
       <c r="A43" s="96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="D43" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="E43" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="E43" s="91" t="s">
+      <c r="F43" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="F43" s="89" t="s">
-        <v>217</v>
-      </c>
       <c r="G43" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H43" s="89">
         <v>2</v>
       </c>
       <c r="I43" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J43" s="97"/>
       <c r="K43" s="96" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="L43" s="92" t="s">
         <v>31</v>
       </c>
       <c r="M43" s="93" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="N43" s="94" t="s">
         <v>40</v>
@@ -8529,50 +8628,50 @@
         <v>1</v>
       </c>
       <c r="Q43" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R43" s="61"/>
       <c r="S43" s="61"/>
       <c r="T43" s="61"/>
       <c r="U43" s="61"/>
     </row>
-    <row r="44" spans="1:21" ht="165.75">
+    <row r="44" spans="1:21" ht="143.1">
       <c r="A44" s="87" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B44" s="89" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C44" s="89" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D44" s="90" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E44" s="91" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="89" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G44" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H44" s="89">
         <v>2</v>
       </c>
       <c r="I44" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J44" s="96"/>
       <c r="K44" s="98" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="L44" s="92" t="s">
         <v>39</v>
       </c>
       <c r="M44" s="93" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N44" s="94" t="s">
         <v>33</v>
@@ -8584,50 +8683,50 @@
         <v>1</v>
       </c>
       <c r="Q44" s="61" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R44" s="61"/>
       <c r="S44" s="61"/>
       <c r="T44" s="61"/>
       <c r="U44" s="61"/>
     </row>
-    <row r="45" spans="1:21" ht="195">
+    <row r="45" spans="1:21" ht="188.45">
       <c r="A45" s="87" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B45" s="89" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C45" s="89" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D45" s="90" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="E45" s="91" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F45" s="89" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G45" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H45" s="89">
         <v>2</v>
       </c>
       <c r="I45" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J45" s="96" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="K45" s="99"/>
       <c r="L45" s="92" t="s">
         <v>39</v>
       </c>
       <c r="M45" s="93" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="N45" s="94" t="s">
         <v>32</v>
@@ -8644,45 +8743,45 @@
       <c r="T45" s="61"/>
       <c r="U45" s="61"/>
     </row>
-    <row r="46" spans="1:21" s="43" customFormat="1" ht="150">
+    <row r="46" spans="1:21" s="43" customFormat="1" ht="130.5">
       <c r="A46" s="87" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D46" s="90" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="E46" s="91" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F46" s="89" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G46" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H46" s="89">
         <v>2</v>
       </c>
       <c r="I46" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J46" s="96" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="K46" s="100" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="L46" s="92" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M46" s="93" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N46" s="94" t="s">
         <v>33</v>
@@ -8699,39 +8798,39 @@
       <c r="T46" s="61"/>
       <c r="U46" s="61"/>
     </row>
-    <row r="47" spans="1:21" s="43" customFormat="1" ht="204">
+    <row r="47" spans="1:21" s="43" customFormat="1" ht="182.1">
       <c r="A47" s="87" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C47" s="89" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D47" s="90" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="E47" s="91" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F47" s="89" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G47" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H47" s="89">
         <v>2</v>
       </c>
       <c r="I47" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J47" s="96" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="K47" s="89" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="L47" s="92"/>
       <c r="M47" s="92"/>
@@ -8746,45 +8845,45 @@
       <c r="T47" s="61"/>
       <c r="U47" s="61"/>
     </row>
-    <row r="48" spans="1:21" s="43" customFormat="1" ht="178.5">
+    <row r="48" spans="1:21" s="43" customFormat="1" ht="156">
       <c r="A48" s="87" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B48" s="88" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C48" s="88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D48" s="90" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="E48" s="91" t="s">
         <v>97</v>
       </c>
       <c r="F48" s="89" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G48" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H48" s="89">
         <v>2</v>
       </c>
       <c r="I48" s="87" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="J48" s="96" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="K48" s="89" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="L48" s="92" t="s">
         <v>39</v>
       </c>
       <c r="M48" s="93" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N48" s="94" t="s">
         <v>33</v>
@@ -8799,45 +8898,45 @@
       <c r="T48" s="61"/>
       <c r="U48" s="61"/>
     </row>
-    <row r="49" spans="1:21" s="43" customFormat="1" ht="191.25">
+    <row r="49" spans="1:21" s="43" customFormat="1" ht="182.1">
       <c r="A49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D49" s="90" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E49" s="91" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="F49" s="96" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G49" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H49" s="89">
         <v>2</v>
       </c>
       <c r="I49" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J49" s="89" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="K49" s="89" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="L49" s="92" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M49" s="93" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="N49" s="94" t="s">
         <v>32</v>
@@ -8849,7 +8948,7 @@
         <v>4</v>
       </c>
       <c r="Q49" s="61" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="R49" s="61"/>
       <c r="S49" s="61"/>
@@ -8860,43 +8959,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="43" customFormat="1" ht="180">
+    <row r="50" spans="1:21" s="43" customFormat="1" ht="159.6">
       <c r="A50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="89" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D50" s="90" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E50" s="91" t="s">
         <v>97</v>
       </c>
       <c r="F50" s="89" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G50" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H50" s="89">
         <v>2</v>
       </c>
       <c r="I50" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J50" s="96" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="K50" s="89"/>
       <c r="L50" s="92" t="s">
         <v>31</v>
       </c>
       <c r="M50" s="93" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N50" s="94" t="s">
         <v>32</v>
@@ -8908,52 +9007,52 @@
         <v>3</v>
       </c>
       <c r="Q50" s="61" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="R50" s="61"/>
       <c r="S50" s="61"/>
       <c r="T50" s="61"/>
       <c r="U50" s="61"/>
     </row>
-    <row r="51" spans="1:21" ht="165.75">
+    <row r="51" spans="1:21" ht="156">
       <c r="A51" s="87" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="89" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C51" s="89" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D51" s="90" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E51" s="91" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="F51" s="89" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="G51" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H51" s="89">
         <v>2</v>
       </c>
       <c r="I51" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J51" s="96" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="K51" s="101" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="L51" s="92" t="s">
         <v>39</v>
       </c>
       <c r="M51" s="93" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="N51" s="94" t="s">
         <v>32</v>
@@ -8965,50 +9064,50 @@
         <v>2</v>
       </c>
       <c r="Q51" s="61" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="R51" s="61"/>
       <c r="S51" s="61"/>
       <c r="T51" s="61"/>
       <c r="U51" s="61"/>
     </row>
-    <row r="52" spans="1:21" ht="128.25">
+    <row r="52" spans="1:21" ht="126">
       <c r="A52" s="87" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B52" s="102" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D52" s="90" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="E52" s="91"/>
       <c r="F52" s="89" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="G52" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H52" s="89">
         <v>2</v>
       </c>
       <c r="I52" s="87" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="J52" s="96" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="K52" s="103" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="L52" s="92" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M52" s="93" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="N52" s="94" t="s">
         <v>33</v>
@@ -9025,45 +9124,45 @@
       <c r="T52" s="61"/>
       <c r="U52" s="61"/>
     </row>
-    <row r="53" spans="1:21" ht="242.25">
+    <row r="53" spans="1:21" ht="224.1">
       <c r="A53" s="87" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B53" s="89" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="C53" s="89" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="D53" s="90" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="E53" s="91" t="s">
         <v>97</v>
       </c>
       <c r="F53" s="89" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G53" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H53" s="89">
         <v>2</v>
       </c>
       <c r="I53" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J53" s="96" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="K53" s="99" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="L53" s="92" t="s">
         <v>39</v>
       </c>
       <c r="M53" s="93" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="N53" s="94" t="s">
         <v>33</v>
@@ -9075,50 +9174,50 @@
         <v>3</v>
       </c>
       <c r="Q53" s="61" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="R53" s="61"/>
       <c r="S53" s="61"/>
       <c r="T53" s="61"/>
       <c r="U53" s="61"/>
     </row>
-    <row r="54" spans="1:21" ht="195">
+    <row r="54" spans="1:21" ht="188.45">
       <c r="A54" s="87" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B54" s="89" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C54" s="89" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D54" s="90" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E54" s="91" t="s">
         <v>97</v>
       </c>
       <c r="F54" s="89" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G54" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H54" s="89">
         <v>2</v>
       </c>
       <c r="I54" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J54" s="96" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="K54" s="99"/>
       <c r="L54" s="92" t="s">
         <v>39</v>
       </c>
       <c r="M54" s="93" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="N54" s="94" t="s">
         <v>32</v>
@@ -9130,7 +9229,7 @@
         <v>3</v>
       </c>
       <c r="Q54" s="61" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="R54" s="61">
         <v>1</v>
@@ -9139,36 +9238,36 @@
       <c r="T54" s="61"/>
       <c r="U54" s="61"/>
     </row>
-    <row r="55" spans="1:21" s="52" customFormat="1" ht="255">
+    <row r="55" spans="1:21" s="52" customFormat="1" ht="221.1">
       <c r="A55" s="87" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="89" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C55" s="89" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D55" s="90" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E55" s="91" t="s">
         <v>97</v>
       </c>
       <c r="F55" s="89" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G55" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H55" s="89">
         <v>2</v>
       </c>
       <c r="I55" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J55" s="96" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="K55" s="93"/>
       <c r="L55" s="92"/>
@@ -9177,50 +9276,50 @@
       <c r="O55" s="92"/>
       <c r="P55" s="61"/>
       <c r="Q55" s="20" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="R55" s="61"/>
       <c r="S55" s="61"/>
       <c r="T55" s="61"/>
       <c r="U55" s="61"/>
     </row>
-    <row r="56" spans="1:21" ht="195">
+    <row r="56" spans="1:21" ht="159.6">
       <c r="A56" s="87" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B56" s="89" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C56" s="89" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D56" s="90" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E56" s="91" t="s">
         <v>97</v>
       </c>
       <c r="F56" s="89" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G56" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H56" s="89">
         <v>2</v>
       </c>
       <c r="I56" s="87" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J56" s="96" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="K56" s="89"/>
       <c r="L56" s="92" t="s">
         <v>39</v>
       </c>
       <c r="M56" s="93" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N56" s="94" t="s">
         <v>33</v>
@@ -9235,39 +9334,39 @@
       <c r="T56" s="61"/>
       <c r="U56" s="61"/>
     </row>
-    <row r="57" spans="1:21" ht="195">
+    <row r="57" spans="1:21" ht="174">
       <c r="A57" s="105" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B57" s="106" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C57" s="106" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D57" s="106" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E57" s="105"/>
       <c r="F57" s="105"/>
       <c r="G57" s="107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H57" s="107">
         <v>2</v>
       </c>
       <c r="I57" s="105"/>
       <c r="J57" s="104" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="K57" s="106" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="L57" s="92" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M57" s="93" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="N57" s="94" t="s">
         <v>32</v>
@@ -9279,7 +9378,7 @@
         <v>3</v>
       </c>
       <c r="Q57" s="61" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="R57" s="61">
         <v>1</v>
@@ -9288,19 +9387,19 @@
       <c r="T57" s="61"/>
       <c r="U57" s="61"/>
     </row>
-    <row r="58" spans="1:21" s="57" customFormat="1" ht="105">
+    <row r="58" spans="1:21" s="57" customFormat="1" ht="101.45">
       <c r="A58" s="87" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B58" s="104" t="s">
-        <v>518</v>
+        <v>275</v>
       </c>
       <c r="C58" s="108"/>
       <c r="D58" s="108"/>
       <c r="E58" s="108"/>
       <c r="F58" s="108"/>
       <c r="G58" s="104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H58" s="104">
         <v>2</v>
@@ -9308,7 +9407,7 @@
       <c r="I58" s="108"/>
       <c r="J58" s="109"/>
       <c r="K58" s="104" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="L58" s="92"/>
       <c r="M58" s="92"/>
@@ -9318,7 +9417,7 @@
         <v>3</v>
       </c>
       <c r="Q58" s="61" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="R58" s="61"/>
       <c r="S58" s="61"/>
@@ -9327,21 +9426,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="105">
+    <row r="59" spans="1:21" ht="101.45">
       <c r="A59" s="59" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B59" s="95" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C59" s="105" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="97"/>
       <c r="E59" s="97"/>
       <c r="F59" s="97"/>
       <c r="G59" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H59" s="97">
         <v>2</v>
@@ -9362,19 +9461,19 @@
     </row>
     <row r="60" spans="1:21" s="43" customFormat="1" ht="117.75" customHeight="1">
       <c r="A60" s="59" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B60" s="95" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="C60" s="105" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" s="97"/>
       <c r="E60" s="97"/>
       <c r="F60" s="97"/>
       <c r="G60" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H60" s="97">
         <v>2</v>
@@ -9393,21 +9492,21 @@
       <c r="T60" s="61"/>
       <c r="U60" s="61"/>
     </row>
-    <row r="61" spans="1:21" ht="75">
+    <row r="61" spans="1:21" ht="72.599999999999994">
       <c r="A61" s="68" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B61" s="113" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C61" s="114" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" s="112"/>
       <c r="E61" s="112"/>
       <c r="F61" s="112"/>
       <c r="G61" s="113" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H61" s="112">
         <v>2</v>
@@ -9428,7 +9527,7 @@
     </row>
     <row r="62" spans="1:21" s="141" customFormat="1" ht="36">
       <c r="A62" s="83" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B62" s="82"/>
       <c r="C62" s="82"/>
@@ -9451,21 +9550,21 @@
       <c r="T62" s="84"/>
       <c r="U62" s="84"/>
     </row>
-    <row r="63" spans="1:21" s="52" customFormat="1" ht="45">
+    <row r="63" spans="1:21" s="52" customFormat="1" ht="43.5">
       <c r="A63" s="69" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="C63" s="72" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D63" s="70"/>
       <c r="E63" s="70"/>
       <c r="F63" s="70"/>
       <c r="G63" s="71" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="H63" s="70">
         <v>3</v>
@@ -9480,21 +9579,21 @@
       <c r="T63" s="140"/>
       <c r="U63" s="140"/>
     </row>
-    <row r="64" spans="1:21" s="52" customFormat="1" ht="45">
+    <row r="64" spans="1:21" s="52" customFormat="1" ht="43.5">
       <c r="A64" s="59" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B64" s="74" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D64" s="73"/>
       <c r="E64" s="73"/>
       <c r="F64" s="73"/>
       <c r="G64" s="74" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H64" s="73">
         <v>3</v>
@@ -9513,21 +9612,21 @@
       <c r="T64" s="61"/>
       <c r="U64" s="61"/>
     </row>
-    <row r="65" spans="1:21" s="52" customFormat="1" ht="60">
+    <row r="65" spans="1:21" s="52" customFormat="1" ht="57.95">
       <c r="A65" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B65" s="74" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D65" s="73"/>
       <c r="E65" s="73"/>
       <c r="F65" s="73"/>
       <c r="G65" s="74" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H65" s="73">
         <v>3</v>
@@ -9542,21 +9641,21 @@
       <c r="T65" s="61"/>
       <c r="U65" s="61"/>
     </row>
-    <row r="66" spans="1:21" s="52" customFormat="1" ht="45">
+    <row r="66" spans="1:21" s="52" customFormat="1" ht="43.5">
       <c r="A66" s="59" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B66" s="74" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D66" s="73"/>
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="74" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H66" s="73">
         <v>3</v>
@@ -9571,32 +9670,32 @@
       <c r="T66" s="61"/>
       <c r="U66" s="61"/>
     </row>
-    <row r="67" spans="1:21" s="52" customFormat="1" ht="75">
+    <row r="67" spans="1:21" s="52" customFormat="1" ht="57.95">
       <c r="A67" s="81" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B67" s="76" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="C67" s="76" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="D67" s="77"/>
       <c r="E67" s="78"/>
       <c r="F67" s="76" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="G67" s="76" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="H67" s="76">
         <v>3</v>
       </c>
       <c r="I67" s="79" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="J67" s="80" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="K67" s="76"/>
       <c r="L67" s="50"/>
@@ -9646,7 +9745,7 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
@@ -9692,19 +9791,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M1" s="41" t="s">
         <v>6</v>
@@ -9719,22 +9818,22 @@
         <v>11</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="165">
+    <row r="2" spans="1:21" ht="144.94999999999999">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -9760,19 +9859,19 @@
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="L2" s="45" t="s">
         <v>31</v>
       </c>
       <c r="M2" s="46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N2" s="47" t="s">
         <v>32</v>
@@ -9784,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="405">
+    <row r="3" spans="1:21" ht="377.1">
       <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
@@ -9798,7 +9897,7 @@
         <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>38</v>
@@ -9810,13 +9909,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>39</v>
@@ -9834,7 +9933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="255">
+    <row r="4" spans="1:21" ht="231.95">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -9860,13 +9959,13 @@
         <v>1</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="L4" s="45" t="s">
         <v>39</v>
@@ -9884,7 +9983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="360">
+    <row r="5" spans="1:21" ht="333.6">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -9910,19 +10009,19 @@
         <v>1</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>31</v>
       </c>
       <c r="M5" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N5" s="47" t="s">
         <v>33</v>
@@ -9960,13 +10059,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="L6" s="45" t="s">
         <v>31</v>
@@ -9987,7 +10086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="180">
+    <row r="7" spans="1:21" ht="159.6">
       <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
@@ -10013,13 +10112,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L7" s="45" t="s">
         <v>31</v>
@@ -10037,10 +10136,10 @@
         <v>1</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="330">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="290.10000000000002">
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
@@ -10066,10 +10165,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="45" t="s">
@@ -10088,10 +10187,10 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="409.5">
@@ -10120,13 +10219,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="L9" s="45" t="s">
         <v>39</v>
@@ -10144,10 +10243,10 @@
         <v>3</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="409.5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="391.5">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
@@ -10173,10 +10272,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="45" t="s">
@@ -10212,7 +10311,7 @@
         <v>84</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>86</v>
@@ -10224,11 +10323,11 @@
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="16" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="L11" s="45" t="s">
         <v>39</v>
@@ -10246,7 +10345,7 @@
         <v>3</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="R11" s="2">
         <v>1</v>
@@ -10278,11 +10377,11 @@
         <v>1</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="9" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="L12" s="45" t="s">
         <v>31</v>
@@ -10298,13 +10397,13 @@
         <v>10</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="127.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="129.94999999999999">
       <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
@@ -10330,11 +10429,11 @@
         <v>1</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
@@ -10344,27 +10443,27 @@
         <v>10</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="375">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="348">
       <c r="A14" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>103</v>
+        <v>339</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>30</v>
@@ -10373,36 +10472,36 @@
         <v>1</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="52" customFormat="1" ht="90">
+    <row r="15" spans="1:21" s="52" customFormat="1" ht="87">
       <c r="A15" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>30</v>
@@ -10411,13 +10510,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="L15" s="45" t="s">
         <v>39</v>
@@ -10440,22 +10539,22 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="135">
+    <row r="16" spans="1:21" ht="129.94999999999999">
       <c r="A16" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>30</v>
@@ -10464,17 +10563,17 @@
         <v>1</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="10" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="L16" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M16" s="47" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N16" s="47" t="s">
         <v>32</v>
@@ -10488,16 +10587,16 @@
     </row>
     <row r="17" spans="1:21" ht="176.1" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>46</v>
@@ -10512,13 +10611,13 @@
         <v>1</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="L17" s="45" t="s">
         <v>39</v>
@@ -10536,30 +10635,30 @@
         <v>1</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="U17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="153">
+    <row r="18" spans="1:21" ht="143.1">
       <c r="A18" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>30</v>
@@ -10568,17 +10667,17 @@
         <v>1</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="N18" s="47" t="s">
         <v>32</v>
@@ -10590,21 +10689,21 @@
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="229.5">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="207.95">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>123</v>
+        <v>362</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="10" t="s">
@@ -10617,19 +10716,19 @@
         <v>1</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="N19" s="47" t="s">
         <v>32</v>
@@ -10641,30 +10740,30 @@
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="U19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="165.75">
+    <row r="20" spans="1:21" ht="168.95">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>30</v>
@@ -10673,19 +10772,19 @@
         <v>1</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="L20" s="45" t="s">
         <v>31</v>
       </c>
       <c r="M20" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N20" s="47" t="s">
         <v>33</v>
@@ -10697,30 +10796,30 @@
         <v>1</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="R20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="225">
+    <row r="21" spans="1:21" ht="203.1">
       <c r="A21" s="30" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>30</v>
@@ -10729,13 +10828,13 @@
         <v>1</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="L21" s="45" t="s">
         <v>31</v>
@@ -10751,24 +10850,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="114.75">
+    <row r="22" spans="1:21" ht="117">
       <c r="A22" s="32" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>30</v>
@@ -10777,19 +10876,19 @@
         <v>1</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M22" s="46" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="N22" s="47" t="s">
         <v>33</v>
@@ -10801,24 +10900,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="390">
+    <row r="23" spans="1:21" ht="348">
       <c r="A23" s="19" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B23" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="E23" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="F23" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>142</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>30</v>
@@ -10827,19 +10926,19 @@
         <v>1</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="L23" s="50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M23" s="49" t="s">
-        <v>103</v>
+        <v>339</v>
       </c>
       <c r="N23" s="51" t="s">
         <v>32</v>
@@ -10851,30 +10950,30 @@
         <v>3</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="U23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="225">
+    <row r="24" spans="1:21" ht="188.45">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="E24" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="F24" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>30</v>
@@ -10883,13 +10982,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="L24" s="45" t="s">
         <v>31</v>
@@ -10907,30 +11006,30 @@
         <v>2</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="S24" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="52" customFormat="1" ht="150">
+    <row r="25" spans="1:21" s="52" customFormat="1" ht="130.5">
       <c r="A25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>30</v>
@@ -10939,19 +11038,19 @@
         <v>1</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="L25" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M25" s="47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N25" s="47"/>
       <c r="O25" s="47"/>
@@ -10959,7 +11058,7 @@
         <v>2</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2">
@@ -10968,24 +11067,24 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" ht="180">
+    <row r="26" spans="1:21" ht="156">
       <c r="A26" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>157</v>
-      </c>
       <c r="F26" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>30</v>
@@ -10994,17 +11093,17 @@
         <v>1</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M26" s="44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N26" s="48" t="s">
         <v>32</v>
@@ -11016,24 +11115,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="127.5">
+    <row r="27" spans="1:21" ht="129.94999999999999">
       <c r="A27" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>161</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>46</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>30</v>
@@ -11042,13 +11141,13 @@
         <v>1</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="L27" s="45" t="s">
         <v>39</v>
@@ -11062,21 +11161,21 @@
         <v>1</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="165">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="130.5">
       <c r="A28" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>28</v>
@@ -11091,20 +11190,20 @@
         <v>1</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="54" t="s">
         <v>31</v>
       </c>
       <c r="M28" s="55" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N28" s="56" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="O28" s="56" t="s">
         <v>41</v>
@@ -11113,18 +11212,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="195">
+    <row r="29" spans="1:21" ht="159.6">
       <c r="A29" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>46</v>
@@ -11139,17 +11238,17 @@
         <v>1</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J29" s="48" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M29" s="46" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N29" s="47" t="s">
         <v>33</v>
@@ -11159,18 +11258,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="153">
+    <row r="30" spans="1:21" ht="143.1">
       <c r="A30" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>46</v>
@@ -11185,19 +11284,19 @@
         <v>1</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="L30" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M30" s="46" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N30" s="47" t="s">
         <v>33</v>
@@ -11207,7 +11306,7 @@
         <v>4</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="T30" s="2">
         <v>1</v>
@@ -11216,24 +11315,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="114.75">
+    <row r="31" spans="1:21" ht="117">
       <c r="A31" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>30</v>
@@ -11242,10 +11341,10 @@
         <v>1</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="45" t="s">
@@ -11262,24 +11361,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="360">
+    <row r="32" spans="1:21" ht="318.95">
       <c r="A32" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>178</v>
-      </c>
       <c r="F32" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>30</v>
@@ -11288,19 +11387,19 @@
         <v>1</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="K32" s="65" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="L32" s="43" t="s">
         <v>31</v>
       </c>
       <c r="M32" s="44" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="N32" s="48" t="s">
         <v>33</v>
@@ -11312,15 +11411,15 @@
         <v>2</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="240">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="203.1">
       <c r="A33" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
@@ -11335,7 +11434,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
       <c r="K33" s="22" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="L33" s="43" t="s">
         <v>31</v>
@@ -11351,30 +11450,30 @@
         <v>3</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="R33" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="210">
+    <row r="34" spans="1:21" ht="174">
       <c r="A34" s="19" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>403</v>
+        <v>282</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>30</v>
@@ -11385,7 +11484,7 @@
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
       <c r="K34" s="67" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="L34" s="50"/>
       <c r="M34" s="50"/>
@@ -11393,19 +11492,19 @@
       <c r="O34" s="50"/>
       <c r="P34" s="61"/>
       <c r="Q34" s="20" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="R34" s="61"/>
       <c r="S34" s="61"/>
       <c r="T34" s="61"/>
       <c r="U34" s="61"/>
     </row>
-    <row r="35" spans="1:21" ht="120">
+    <row r="35" spans="1:21" ht="116.1">
       <c r="A35" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
@@ -11420,7 +11519,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
       <c r="K35" s="22" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="L35" s="45"/>
       <c r="M35" s="45"/>
@@ -11430,18 +11529,18 @@
         <v>3</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="R35" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="105">
+    <row r="36" spans="1:21" ht="87">
       <c r="A36" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
@@ -11456,7 +11555,7 @@
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
       <c r="K36" s="22" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
@@ -11466,21 +11565,21 @@
         <v>3</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="75">
+    <row r="37" spans="1:21" ht="72.599999999999994">
       <c r="A37" s="59" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
@@ -11498,7 +11597,7 @@
         <v>39</v>
       </c>
       <c r="M37" s="46" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="N37" s="47" t="s">
         <v>33</v>
@@ -11507,24 +11606,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="52" customFormat="1" ht="114.75">
+    <row r="38" spans="1:21" s="52" customFormat="1" ht="117">
       <c r="A38" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>30</v>
@@ -11533,17 +11632,17 @@
         <v>1</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M38" s="46" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="N38" s="47" t="s">
         <v>33</v>
@@ -11560,45 +11659,45 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" ht="114.75">
+    <row r="39" spans="1:21" ht="117">
       <c r="A39" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="E39" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="F39" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="G39" s="10" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H39" s="10">
         <v>2</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="L39" s="45" t="s">
         <v>31</v>
       </c>
       <c r="M39" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N39" s="47" t="s">
         <v>33</v>
@@ -11610,42 +11709,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="140.25">
+    <row r="40" spans="1:21" ht="129.94999999999999">
       <c r="A40" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>217</v>
-      </c>
       <c r="G40" s="10" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H40" s="10">
         <v>2</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="L40" s="45" t="s">
         <v>31</v>
       </c>
       <c r="M40" s="46" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="N40" s="47" t="s">
         <v>40</v>
@@ -11657,43 +11756,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="165.75">
+    <row r="41" spans="1:21" ht="143.1">
       <c r="A41" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H41" s="10">
         <v>2</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J41" s="15"/>
       <c r="K41" s="58" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="L41" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M41" s="46" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N41" s="47" t="s">
         <v>33</v>
@@ -11705,43 +11804,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="195">
+    <row r="42" spans="1:21" ht="188.45">
       <c r="A42" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="H42" s="10">
         <v>2</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="K42" s="27"/>
       <c r="L42" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M42" s="46" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="N42" s="47" t="s">
         <v>32</v>
@@ -11753,45 +11852,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="150">
+    <row r="43" spans="1:21" ht="130.5">
       <c r="A43" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="H43" s="18">
         <v>2</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="K43" s="62" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="L43" s="50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M43" s="49" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N43" s="51" t="s">
         <v>33</v>
@@ -11803,7 +11902,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="61" t="s">
-        <v>374</v>
+        <v>519</v>
       </c>
       <c r="R43" s="61">
         <v>1</v>
@@ -11812,39 +11911,39 @@
       <c r="T43" s="61"/>
       <c r="U43" s="61"/>
     </row>
-    <row r="44" spans="1:21" s="43" customFormat="1" ht="204">
+    <row r="44" spans="1:21" s="43" customFormat="1" ht="182.1">
       <c r="A44" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="H44" s="10">
         <v>2</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="L44" s="45"/>
       <c r="M44" s="45"/>
@@ -11859,45 +11958,45 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" s="43" customFormat="1" ht="178.5">
+    <row r="45" spans="1:21" s="43" customFormat="1" ht="156">
       <c r="A45" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="H45" s="10">
         <v>2</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="L45" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M45" s="46" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N45" s="47" t="s">
         <v>33</v>
@@ -11907,7 +12006,7 @@
         <v>1</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R45" s="2">
         <v>1</v>
@@ -11918,45 +12017,45 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" s="43" customFormat="1" ht="191.25">
+    <row r="46" spans="1:21" s="43" customFormat="1" ht="182.1">
       <c r="A46" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="H46" s="10">
         <v>2</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="L46" s="45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M46" s="46" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="N46" s="47" t="s">
         <v>32</v>
@@ -11975,43 +12074,43 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" s="43" customFormat="1" ht="180">
+    <row r="47" spans="1:21" s="43" customFormat="1" ht="159.6">
       <c r="A47" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="H47" s="10">
         <v>2</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="45" t="s">
         <v>31</v>
       </c>
       <c r="M47" s="46" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N47" s="47" t="s">
         <v>32</v>
@@ -12028,45 +12127,45 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21" s="43" customFormat="1" ht="165.75">
+    <row r="48" spans="1:21" s="43" customFormat="1" ht="156">
       <c r="A48" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="H48" s="10">
         <v>2</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="L48" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M48" s="46" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="N48" s="47" t="s">
         <v>32</v>
@@ -12083,43 +12182,43 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21" ht="114.75">
+    <row r="49" spans="1:21" ht="117">
       <c r="A49" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="10" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="H49" s="10">
         <v>2</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="K49" s="33" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="L49" s="45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M49" s="46" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="N49" s="47" t="s">
         <v>33</v>
@@ -12131,45 +12230,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="242.25">
+    <row r="50" spans="1:21" ht="224.1">
       <c r="A50" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="H50" s="10">
         <v>2</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="L50" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M50" s="46" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="N50" s="47" t="s">
         <v>33</v>
@@ -12181,43 +12280,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="195">
+    <row r="51" spans="1:21" ht="188.45">
       <c r="A51" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="H51" s="10">
         <v>2</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="K51" s="27"/>
       <c r="L51" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M51" s="46" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="N51" s="47" t="s">
         <v>32</v>
@@ -12226,36 +12325,36 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="255">
+    <row r="52" spans="1:21" ht="221.1">
       <c r="A52" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="H52" s="10">
         <v>2</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="45"/>
@@ -12266,43 +12365,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="52" customFormat="1" ht="195">
+    <row r="53" spans="1:21" s="52" customFormat="1" ht="159.6">
       <c r="A53" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="H53" s="10">
         <v>2</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="K53" s="44"/>
       <c r="L53" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M53" s="46" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N53" s="47" t="s">
         <v>33</v>
@@ -12317,39 +12416,39 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:21" ht="195">
+    <row r="54" spans="1:21" ht="174">
       <c r="A54" s="38" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
       <c r="G54" s="16" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="H54" s="16">
         <v>2</v>
       </c>
       <c r="I54" s="38"/>
       <c r="J54" s="22" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="K54" s="37" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="L54" s="43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M54" s="44" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="N54" s="48" t="s">
         <v>32</v>
@@ -12361,22 +12460,22 @@
         <v>3</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="105">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="101.45">
       <c r="A55" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="39"/>
       <c r="F55" s="39"/>
       <c r="G55" s="22" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="H55" s="22">
         <v>2</v>
@@ -12384,7 +12483,7 @@
       <c r="I55" s="39"/>
       <c r="J55" s="39"/>
       <c r="K55" s="22" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="L55" s="45"/>
       <c r="M55" s="45"/>
@@ -12394,21 +12493,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="57" customFormat="1" ht="105">
+    <row r="56" spans="1:21" s="57" customFormat="1" ht="101.45">
       <c r="A56" s="59" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="2" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="H56" s="1">
         <v>2</v>
@@ -12427,18 +12526,18 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="1:21" ht="60">
+    <row r="57" spans="1:21" ht="43.5">
       <c r="A57" s="59" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="H57" s="1">
         <v>2</v>
@@ -12446,19 +12545,19 @@
     </row>
     <row r="58" spans="1:21" s="43" customFormat="1" ht="117.75" customHeight="1">
       <c r="A58" s="59" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="2" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="H58" s="1">
         <v>2</v>
@@ -12477,45 +12576,45 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:21" ht="120">
+    <row r="59" spans="1:21" ht="101.45">
       <c r="A59" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="D59" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="E59" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="F59" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>211</v>
-      </c>
       <c r="G59" s="10" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="H59" s="10">
         <v>3</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="L59" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M59" s="46" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="N59" s="47" t="s">
         <v>40</v>
@@ -12527,34 +12626,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="114.75">
+    <row r="60" spans="1:21" ht="104.1">
       <c r="A60" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="10" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="H60" s="10">
         <v>3</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="J60" s="66" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="45"/>
@@ -12565,18 +12664,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="45">
+    <row r="61" spans="1:21" ht="43.5">
       <c r="A61" s="59" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H61" s="1">
         <v>3</v>
@@ -12586,52 +12685,52 @@
       <c r="N61" s="45"/>
       <c r="O61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="45">
+    <row r="62" spans="1:21" ht="43.5">
       <c r="A62" s="59" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="H62" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="60">
+    <row r="63" spans="1:21" ht="57.95">
       <c r="A63" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H63" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="45">
+    <row r="64" spans="1:21" ht="43.5">
       <c r="A64" s="59" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H64" s="1">
         <v>3</v>
@@ -12661,6 +12760,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="12c1d019-452c-4f5f-9397-ffc6d392f7a1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="689033e7-fc09-4c40-a3c6-00594cf9aea0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085C9F2CD37B1374EBC535C74F202A173" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2790b99a3d72608f6269c6bfcacd7c1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="689033e7-fc09-4c40-a3c6-00594cf9aea0" xmlns:ns3="12c1d019-452c-4f5f-9397-ffc6d392f7a1" xmlns:ns4="ab9ea86b-b30e-4b69-aa01-b771721c3aef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3cc7b546f64d0c596c0b9fcf59ff446" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="689033e7-fc09-4c40-a3c6-00594cf9aea0"/>
@@ -12914,61 +13033,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="12c1d019-452c-4f5f-9397-ffc6d392f7a1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="689033e7-fc09-4c40-a3c6-00594cf9aea0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC452F4-A49D-429D-AB97-7861B01AC740}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="689033e7-fc09-4c40-a3c6-00594cf9aea0"/>
-    <ds:schemaRef ds:uri="12c1d019-452c-4f5f-9397-ffc6d392f7a1"/>
-    <ds:schemaRef ds:uri="ab9ea86b-b30e-4b69-aa01-b771721c3aef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CD9C593-6A79-4D85-9CD9-DE63E0BC27F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFA26091-165F-4BC2-8D88-D31BD362455C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFA26091-165F-4BC2-8D88-D31BD362455C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CD9C593-6A79-4D85-9CD9-DE63E0BC27F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12c1d019-452c-4f5f-9397-ffc6d392f7a1"/>
-    <ds:schemaRef ds:uri="689033e7-fc09-4c40-a3c6-00594cf9aea0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC452F4-A49D-429D-AB97-7861B01AC740}"/>
 </file>